--- a/deuChatbot/research_result/results/rouge_score/rouge_version_1(1500_300).xlsx
+++ b/deuChatbot/research_result/results/rouge_score/rouge_version_1(1500_300).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F204"/>
+  <dimension ref="A1:F305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7226,79 +7226,3950 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>GPT-4o-mini Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험은 다음과 같이 구성되어 있습니다:
+1. **모집단위**: 디자인조형학과
+2. **실기종목**: 택1 (즉, 지원자는 3가지 종목 중에서 선택하여 응시합니다)
+3. **종목별 배점(비율)**:
+   - 기초디자인: 70%
+   - 사고의 전환: 30%
+4. **기초디자인**:
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+   - **실기주제**: 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로는 "잠자리와 저울" 또는 "콜라병과 계절" 등이 있습니다.
+   - **화지크기**: 켄트지3절
+   - **시간**: 5시간
+5. **사고의 전환**:
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+   - **실기주제**: 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로는 "콜라병과 계절" 또는 "바이러스와 자유" 등이 있습니다.
+   - **화지크기**: 켄트지2절
+   - **시간**: 5시간
+디자인조형학과의 실기시험은 창의성과 표현력, 그리고 다양한 주제에 대한 이해력을 평가하기 위해 기초디자인과 사고의 전환 두 가지 종목을 준비해야 합니다.</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0.3988235997077261</v>
+        <v>0.5509554140127387</v>
       </c>
       <c r="E202" t="n">
-        <v>0.2711294556187882</v>
+        <v>0.2907348242811502</v>
       </c>
       <c r="F202" t="n">
-        <v>0.3497239685777745</v>
+        <v>0.4426751592356688</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Google Gemma-2-9b-it Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기 종목은 시각디자인, 산업디자인, 공예디자인 중 택1이며, 각 종목별 배점 비율은 다음과 같습니다:
+- 기초디자인 / 사고의 전환 : 각각 70% (총 700점)
+준비물:
+- 볼펜
+- 연필
+- 색연필
+- 수채물감 등 표현에 필요한 도구
+실기주제와 화지크기는 다음과 같습니다:
+- 기초디자인: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨합니다. 예시로 잠자리와 저울을 연결하는 주제를 들 수 있습니다.
+- 사고의 전환: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨합니다. 예시로 콜라병과 계절을 연결하는 주제를 들 수 있습니다.
+화지크기와 시간은 다음과 같습니다:
+- 화지 크기: 켄트지3절
+- 시간: 5시간
+이러한 준비물, 실기주제, 화지크기 및 시험기간을 참고하여 준비하시면 좋겠습니다.</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0.3543280644176568</v>
+        <v>0.5763440860215054</v>
       </c>
       <c r="E203" t="n">
-        <v>0.2009141509636552</v>
+        <v>0.3714902807775378</v>
       </c>
       <c r="F203" t="n">
-        <v>0.2990666139282802</v>
+        <v>0.4129032258064516</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남):
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회 (국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남):
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>0.9817444219066938</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0.9735234215885947</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.9817444219066938</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서 사용될 수 있는 주제들은 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+당일에는 이 두 가지 주제 중 각각 하나를 선택하여 연결된 주제로 만드는 것이 요구됩니다.</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0.7784431137724551</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0.6545454545454545</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0.7425149700598802</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>네, 학생부교과 전형에서는 출결 점수가 반영됩니다. 
+具体的来说，在“나군 실기/실적(경기실적우수자전형) 전형요소 반영비율”表格中，出勤情况占12%。这表明在该选拔类型中，学生的出勤记录是评估的一部分。
+另外，在“학생부 교과성적 반영방법(학생부교과, 실기/실적 위주전형)”部分也提到了：
+- 反映学期：对于高中毕业预计生：1年级1学期至3年级1学期；对于高中毕业生：1年级1学期至3年级2学期。
+- 选课科目：所有招生单位（韩医专业除外）8门课程：语文、数学、英语学科中排名靠前的8门课程。4门：除去上述8门之外，语文、数学、英语、韩国史、社会（历史/道德包含）、理科中的排名靠前的4门课程。韩医专业：国语、数学、英语、韩国史、社会（历史/道德包含）、科学、汉文学科全部。
+因此，在学生学业成绩评估中，出勤情况确实占有一部分比例，并且是综合评价的一部分内容之一。</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0.1359223300970874</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0.1523809523809524</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>17명을 모집합니다. 
+이 정보는 "가군 수능(일반학생전형), 실기/실적(일반학생전형) 모집단위 및 모집인원" 표에서 확인할 수 있습니다:
+인문사회과학대학 / 인문사회 / 국어국문학과 - 교직 / 17 /
+따라서, 인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로는 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>0.3789473684210526</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0.3440860215053763</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0.3789473684210526</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다. 
+인문사회과학대학 / 인문사회 / 영어영문학과 - 교직 / 28 / 이라는 정보가 표에 포함되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>0.3396226415094339</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0.1568627450980392</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0.2641509433962264</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>22명입니다.
+의료보건생활대학 간호학과는 나군 일반학생전형에서 최대 선발 가능 인원이 22명이라고 표에 나와 있습니다.</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>0.423076923076923</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0.3846153846153846</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다:
+- 1등급 : 139점
+- 2등급 : 131점
+- 3등급 : 123점
+- 4등급 : 115점
+- 5등급 : 107점
+- 6등급 : 99점
+- 7등급 : 91점
+- 8등급 : 83점
+- 9등급 : 75점
+이 점수들은 등급별로 대략적인 변환표준점을 나타내는 것입니다.</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>0.8862275449101796</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0.8727272727272727</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0.8862275449101796</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생은 나군 학생부교과(농어촌학생전형)로 지원할 수 없습니다. 
+[표 추가내용]에 따르면, "지원자의 거주지와 부모의 거주지는 동일하지 않아도 되며, 재학기간과 거주기간은 연속된 연수만을 인정합니다."라고 명시되어 있지만, "농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다."라는 조건이 추가로 제시되어 있습니다.
+따라서 예술고 학생은 나군 학생부교과(농어촌학생전형)에 지원할 자격이 없습니다. 다른 전형을 통해 지원해 보는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0.5549738219895288</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0.4867724867724867</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0.5340314136125655</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>4등급의 여자 제자리 멀리뛰기 기록은 218~221cm이며, 해당 기록에 대한 배점은 275점입니다.
+따라서, 레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록과 배점은 다음과 같습니다:
+- 기록: 218~221cm
+- 배점: 275점</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>0.6749999999999999</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0.5897435897435898</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경기지도학과에서 출결 반영 비율은 12%입니다.
+이 정보는 "나군 실기/실적(경기실적우수자전형) 전형요소 반영비율" 표에서 확인할 수 있습니다. 해당 표에 따르면 경기지도학과의 전형요소 반영 비율은 다음과 같습니다:
+- 학생부교과: 18%
+- 출결: 12%
+- 서류(경기실적): 70%
+따라서, 출결이 전체 점수 중에서 12%를 차지합니다.</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>0.205607476635514</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0.1714285714285714</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0.1682242990654206</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>40명을 모집합니다.
+동의대학교 2024학년도 가군 수능(일반학생전형)에서 물리치료학과는 40명을 모집하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0.5238095238095237</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0.5909090909090909</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 1월 17일(수)에 실시됩니다.
+관련 정보는 다음과 같습니다:
+- **일정**: 2024. 01. 17.(수)
+- **내용**: 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 및 체육학과의 실기고사
+참고로, 해당 일정에 앞서 대기실 및 입실시간 안내는 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>0.1636363636363636</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0.1296296296296296</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0.1636363636363636</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 수능 최저기준 정보가 제공된 표에서 확인할 수 없습니다. 현재 제공된 정보는 응용화학과에 대한 지원자의 수능 점수 평균 및 표준 편차 등 통계적인 데이터만 포함되어 있습니다.
+수능 최저기준이 명시되어 있지 않으므로, 동의대학교 입학 홈페이지나 공지사항을 확인해 보시는 것이 가장 정확한 정보를 얻는 방법일 것입니다. 필요하시다면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 링크를 참고하여 더 자세한 정보를 찾아보세요.</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>0.0970873786407767</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0.0396039603960396</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0.0970873786407767</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과는 다음과 같습니다:
+1. 미래융합대학 라이프융합학부 - 신설 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+2. 미래융합대학 부동산자산경영학부 (부동산투자학, 부동산개발경영학)
+위와 같이 두 개의 신설 학과가 있습니다.</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>0.6153846153846153</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0.523076923076923</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류 평가: 70%
+- 면접: 30%
+이 비율은 모든 모집단위에 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0.7012987012987013</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0.5066666666666666</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0.6753246753246753</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서는 의료·보건·생활대학, 공과대학, ICT융합공과대학 모집단위에서 수능 가산점을 적용합니다. 
+특히, 수학(미적분 또는 기하) 응시자에게만 수학 취득 표준점수의 10%를 가산점으로 부여한다고 알려져 있습니다.
+관련 정보는 다음과 같습니다:
+- 모집단위: 의료·보건·생활대학, 공과대학, ICT융합공과대학
+- 가산점 대상: 수학(미적분 또는 기하) 응시자
+- 가산점 내용: 수학 취득 표준점수의 10%</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>0.6415094339622641</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0.4585987261146496</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0.440251572327044</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서는 수능 성적이 전형 요소 중 100%로 반영됩니다. 
+이러한 정보는 다음과 같은 표에서 확인할 수 있습니다:
+[표 제목 : 가군 수능(일반학생전형), 실기/실적(일반학생전형) 전형요소 반영비율]
+| 전형명               | 모집단위                   | 전형요소 반영비율{ 수능 / 실기 } |
+|----------------------|----------------------------|----------------------------------|
+| 가군 수능 (일반학생전형) | 전 모집단위(레저스포츠학과, 태권도학과 제외) | { 100% / - / } |
+따라서, 가군의 모든 모집단위에서 수능 성적은 100%로 반영되며, 실기 점수는 해당되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0.130952380952381</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 다음과 같이 일정이 정해져 있습니다:
+- 레저스포츠학과와 태권도학과의 실기고사는 **2024. 01. 16.(화)**에 진행됩니다.
+참조하시려면 [이곳](https://ipsi.deu.ac.kr/main.do)을 확인해 주세요.</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>0.3835616438356164</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0.2253521126760563</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0.3287671232876713</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서는 한의예과, 디자인조형학과, 체육학과, 경기지도학과가 제외되었습니다.
+이러한 정보는 "가군 수능(일반학생전형), 실기/실적(일반학생전형) 모집단위 및 모집인원" 표와 "수능성적 반영방법(가군, 나군, 다군 동일)" 표에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>0.5535714285714286</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0.4181818181818182</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0.4999999999999999</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서 수능 최저기준은 없습니다. 
+참조할 수 있는 정보는 다음과 같습니다:
+- [전형요소 반영비율] 표에서 다군 수능(일반학생전형)의 수능최저기준 항목이 "수능최저기준 없음"으로 기재되어 있습니다.
+따라서, 2024학년도 동의대학교 다군 전형에서는 수능 최저기준이 적용되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>0.3333333333333334</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0.2978723404255319</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0.3333333333333334</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 여러 학과가 학부에서 학과로 분리되었습니다. 주요 내용은 다음과 같습니다:
+1. 보육·가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학과 → 부동산투자학과, 부동산개발경영학과
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악·뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)
+이 외에도 일부 학과는 신설되었거나 모집을 중지하였습니다.</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>0.9303621169916435</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0.8938547486033519</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0.9164345403899722</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에 따르면, 원서접수 마감일은 **2024년 1월 6일(토) 18시까지**입니다.
+원서접수는 다음과 같이 이루어집니다:
+- **원서접수(인터넷)**: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+지원자는 이 기간 내에 원서를 접수하고 전형료를 결제해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>0.3960396039603961</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0.3232323232323233</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0.3960396039603961</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 주요 변경된 전형 요소는 다음과 같습니다:
+1. **수능 위주 전형 (가군, 나군, 다군)**
+   - 수능 성적을 기반으로 한 전형에서 수능 최저기준이 없어졌습니다.
+2. **실기/실적 위주 전형 (가군, 나군, 다군)**
+   - 실기/실적 평가의 비중이 변경되었습니다:
+     - 가군: 70% 실기 / 30% 수능
+     - 나군: 18% 출결 / 12% 서류 / 70% 실기
+     - 다군: 60% 학업역량 / 40% 전공적합성
+이러한 변경사항은 각 전형의 평가 요소와 비중에 영향을 미치므로 지원자들은 이 점을 고려하여 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0.2095531587057011</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0.05564142194744977</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0.1263482280431433</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기의 비중은 70%입니다.
+이 정보는 "전형요소 반영비율" 표에서 확인할 수 있습니다. 해당 표에서는 가군 실기/실적(일반학생전형) 레저스포츠학과, 태권도학과의 경우 전 모집단위에 대해 실기가 70%, 수능이 30%로 반영된다고 명시되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>0.3595505617977528</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0.2758620689655172</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0.3370786516853932</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 '라이프융합학부'는 세부 전공으로 다음과 같이 구성되어 있습니다:
+- 스타트업 창업 투자학 (Startup &amp; Investment)
+- 뷰티 비즈니스학 (Beauty Business) 
+- 라이프 생활 문화학 (Life Culture)
+이러한 세부 전공들은 '라이프융합학부'라는 하나의 학부 내에서 제공되며, 학생들이 이들 다양한 분야를 종합적으로 연구하고 실무에 적용할 수 있는 교육을 받을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0.3484848484848485</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0.4626865671641791</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다:
+1. 레저스포츠학과 (태권도학과 포함)
+2. 디자인조형학과 (시각디자인, 산업디자인, 공예디자인 포함)
+3. 체육학과
+이 학과들은 가군 수능(일반학생전형) 및 실기/실적(일반학생전형) 모집단위에서 실기고사를 진행합니다.</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>0.4403669724770642</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0.3551401869158879</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0.3853211009174312</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형을 지원할 수 있는 학과는 다음과 같습니다:
+1. 가군 실기/실적(일반학생전형) - 레저스포츠학과, 태권도학과
+2. 나군 실기/실적(일반학생전형) - 디자인조형학과, 체육학과
+3. 다군 실기/실적(일반학생전형) - 경기지도학과
+이러한 학과들은 해당 전형의 특성상 실기나 실적을 중점적으로 평가하는 전형입니다. 지원하려는 학과가 위 목록에 포함되어 있다면, 실기/실적 위주 전형을 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>0.4670658682634731</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0.3272727272727273</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0.4191616766467066</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 미래융합대학의 라이프융합학부는 신설된 학부로, 다음과 같은 전공들을 포함하고 있습니다:
+- 스타트업 창업 투자학 (Startup Investment and Entrepreneurship)
+- 뷰티 비즈니스학 (Beauty Business Studies)
+- 라이프 생활 문화학 (Life Culture Studies)
+따라서, 동의대 라이프융합학부에서는 스타트업 창업 투자학, 뷰티 비즈니스학, 그리고 라이프 생활 문화학 세 가지 전공을 제공하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>0.5203252032520325</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0.4297520661157024</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0.5040650406504066</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 특수목적고등학교(과학고, 국제고, 외국어고, 체육고, 예술고 등) 출신자는 동의대학교 정시모집에서 지원 자격이 제한됩니다. 구체적으로 다음과 같습니다:
+- 과학고, 국제고, 외국어고, 체육고, 예술고 등의 특수목적고등학교 출신자는 일반학생전형으로 지원할 수 없습니다.
+- 이러한 학교를 졸업하거나 재직 중인 경우 해당 전형에 지원할 수 없습니다.
+따라서, 당신이 특수목적고등학교 출신이라면 동의대학교 정시모집에서 일반학생전형을 통해 지원하는 것은 불가능합니다. 
+만약 다른 학교를 졸업하거나 재직 중이라면 해당 전형에 지원 가능하겠지만, 현재 정보로는 특수목적고등학교 출신자로서 일반학생전형으로 지원할 수 없다는 점을 알려드립니다.
+더 자세한 내용은 동의대학교 입학처 웹사이트나 학교 관계부서에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>0.3596491228070175</v>
+      </c>
+      <c r="E232" t="n">
+        <v>0.2123893805309734</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0.2456140350877193</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 정확히 파악하기 위해서는 각 학과별 모집 인원을 확인해야 합니다. 하지만 제공된 정보만으로 판단한다면, 다음과 같은 점들을 고려할 수 있습니다:
+1. **나군 실기/실적(경기실적우수자전형)**: 이 전형에서 경기지도학과는 7명을 모집하고 있으며, 다른 학과들은 5명 미만을 모집하고 있습니다.
+2. **나군 학생부교과(농어촌학생전형) - 정원외**: 이 전형에서는 스마트호스피탈리티학과가 7명을 모집하고 있습니다.
+3. **나군 학생부종합(조기취업형계약학과전형) - 정원외**: 이 전형에서도 스마트호스피탈리티학과, 미래형자동차학과, 소프트웨어융합학과가 각각 7명을 모집하고 있습니다.
+따라서, 현재 제공된 정보만으로 판단하면 **나군 학생부종합(조기취업형계약학과전형) - 정원외**에서 스마트호스피탈리티학과와 미래형자동차학과, 소프트웨어융합학과가 가장 많이 모집하는 것으로 보입니다. 하지만 이는 전체 모집 인원을 고려하지 않은 결과이므로, 최종적인 정보는 동의대학교 입학 홈페이지나 공식 안내서를 확인해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="E233" t="n">
+        <v>0.1048951048951049</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0.1388888888888889</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>你不属于农村或偏远地区，因此不符合东义大学学生部课程（针对农村学生的招生计划）的申请资格。该计划专门面向在农村或偏远地区的中学和高中就读并居住的学生。
+如果你有其他问题或者需要了解更多信息，请告诉我！我可以帮助你查询更多相关内容。你可以访问 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 获取最新信息。</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>0</v>
+      </c>
+      <c r="E234" t="n">
+        <v>0</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 2024학년도 소프트웨어융합학과의 합격자 평균 성적에 대한 데이터가 없습니다. 현재 있는 정보는 나군 학생부종합(조기취업형계약학과전형) - 정원외 모집단위 및 모집인원에 관한 것입니다.
+소프트웨어융합학과는 일반적으로 다른 전형방법을 사용하거나, 특정 전형의 일부분일 수 있으므로, 정확한 합격자 평균 성적을 알기 위해서는 해당 학과와 관련된 공시된 데이터나 입학办公室可以提供关于2024年软件工程系录取学生的平均成绩的信息，但根据提供的数据，没有找到相关具体信息。目前的数据仅包括有关南军学生综合（提前就业型合同学系）- 定员外招生单位及招生人数的内容。
+如果您需要了解2024年软件工程系的录取学生的平均成绩，请参考相关的官方公告或联系学校获取最新和准确的信息。您可以访问东国大学入学咨询网站或直接联系学校的招生办公室以获得更详细的数据。</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>0.2571428571428572</v>
+      </c>
+      <c r="E235" t="n">
+        <v>0.1159420289855072</v>
+      </c>
+      <c r="F235" t="n">
+        <v>0.2142857142857143</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 2024학년도 소프트웨어공학부 최초 합격자의 평균 성적에 대한 데이터가 없습니다. 
+현재 있는 정보는 다음과 같습니다:
+- 나군 학생부종합(조기취업형계약학과전형)에서 소프트웨어융합학과의 모집 정보가 있습니다.
+  - 단과대학: ICT공과대학
+  - 계열: 공학
+  - 모집단위: 소프트웨어융합학과
+  - 모집인원: 7명
+- 나군 학생부종합(조기취업형계약학과전형)의 전형요소 반영비율은 다음과 같습니다:
+  - 서류: 60%
+  - 면접: 40%
+- 나군 학생부종합(조기취업형계약학과전형)의 제출서류는 다음과 같습니다:
+  - 고교 졸업(예정)자
+  - 검정고시출신자
+  - 외국고교 졸업(예정)자
+따라서, 소프트웨어공학부 최초 합격자의 평균 성적을 확인하려면 추가적인 정보나 공개된 통계가 필요합니다. 해당 정보를 찾기 위해서는 동의대학교 입학관리팀이나 관련 홈페이지를 참조해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>0.1951219512195122</v>
+      </c>
+      <c r="E236" t="n">
+        <v>0.1147540983606557</v>
+      </c>
+      <c r="F236" t="n">
+        <v>0.1707317073170732</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接提到合录取通知书的具体公布时间。根据其他信息，可以知道一些相关的截止日期和流程：
+- 在“ 지원자 유의사항 (인터넷 원서접수 유의사항)”部分提到了2024年1月6日（周六）18时是网上报名系统关闭的时间。
+- “합격자(최초 및 충원) 발표 및 등록금 납부”部分提到提交材料的截止日期是2024年1月3日至1月12日17:00。
+但是，具体的录取结果公布时间没有在给定的信息中明确说明。通常情况下，大学会在报名和提交材料的截止日期之后一段时间内公布录取结果。建议直接访问东国大学的官方网站或联系招生办公室以获取确切的合录取通知书公布时间。</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>0.1830985915492958</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0.01428571428571429</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0.1549295774647887</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 면접일정에 대한 구체적인 날짜와 시간이 포함되어 있지 않습니다. 면접 일정과 관련된 자세한 내용은 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)를 참조하시거나, 동의대학교 입학처로 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>0.1521739130434782</v>
+      </c>
+      <c r="E238" t="n">
+        <v>0</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0.1086956521739131</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 한의예과의 최저학력 기준은 다음과 같습니다:
+- **국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목**이 필요합니다.
+이는 한의예과에서 특정 교과목을 반영하는 방법에 따라 다르게 적용되므로, 정확한 최저학력 기준을 확인하려면 동의대학교 입학처 웹사이트나 공식 안내서를 참조하시거나 직접 문의하시는 것이 좋습니다. 
+더 자세한 정보는 [동의대학교 입학처 웹사이트](https://ipsi.deu.ac.kr/main.do)를 방문해보세요.</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>0.1441441441441441</v>
+      </c>
+      <c r="E239" t="n">
+        <v>0.09174311926605504</v>
+      </c>
+      <c r="F239" t="n">
+        <v>0.1441441441441441</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시모집에서는 일반적으로 특정 단과대학이나 모집단위에 대한 수능 최저학력 기준을 적용하지 않습니다. 하지만 일부 전공 또는 모집단위에서 특별한 수능 최저학력기준이 설정될 수 있으므로, 각 모집단위의 상세요강을 확인하시거나 공식 홈페이지를 참조하시는 것이 좋습니다.
+공식 홈페이지: &lt;https://ipsi.deu.ac.kr/main.do&gt;
+추가로, 동의대학교에서는 수능 성적자료의 온라인 제공에 대해 지원자의 동의를 기본으로 하고 있으며, 이는 정시모집에서도 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="E240" t="n">
+        <v>0.07766990291262135</v>
+      </c>
+      <c r="F240" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목)부터 충원합격자 발표가 시작됩니다. 첫 번째 충원합격자는 이 날의 오전 9시에 홈페이지를 통해 발표되며, 두 번째 충원합격자는 같은 날 오후 9시에 발표됩니다.
+발표 일정은 다음과 같습니다:
+- **1차 충원 합격자 발표**: 2024. 02. 15.(목) 09:00
+- **1차 충원 합격자 등록**: 2024. 02. 15.(목) 09:00~16:00
+- **2차 충원 합격자 발표**: 2024. 02. 15.(목) 19:00
+- **2차 충원 합격자 등록**: 2024. 02. 15.(목) 19:00~2024. 02. 20.(화) 18시까지 (개별 전화 통보)
+모든 지원자는 이 일정을 참고하여 홈페이지를 통해 합격 여부를 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="E241" t="n">
+        <v>0.2773109243697479</v>
+      </c>
+      <c r="F241" t="n">
+        <v>0.3166666666666667</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목)부터 3차까지의 충원 합격자 발표가 이루어집니다. 구체적으로:
+- 2024년 2월 14일(수) 09:00에 1차 충원 합격자 발표
+- 2024년 2월 15일(목) 09:00에 2차 충원 합격자 발표
+이 외에도 3차 이후의 추가합격자는 개별 전화 통보를 통해 발표되며, 이는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지 이루어집니다.
+모든 지원자는 홈페이지에서 개별적으로 합격 여부를 확인해야 하며, 지정된 등록 기간 내에 등록금을 납부해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>0.5789473684210527</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0.4468085106382979</v>
+      </c>
+      <c r="F242" t="n">
+        <v>0.4842105263157895</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 또한, 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.
+따라서, 추가모집은 다음과 같은 상황에서 이루어질 수 있습니다:
+1. 수시모집 등록자의 등록(입학) 포기로 인한 결원
+2. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우
+추가모집의 세부 사항은 우리대학 입학관리위원회에서 결정하며, 해당 정보는 본교 홈페이지를 통해 공지됩니다.</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>0.6231155778894472</v>
+      </c>
+      <c r="E243" t="n">
+        <v>0.6192893401015229</v>
+      </c>
+      <c r="F243" t="n">
+        <v>0.6231155778894472</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 동의대학교에서 평생교육을 받은 학력이 있는 사람들을 대상으로 하는 입학 전형입니다. 이 전형에서는 학생부종합평가를 통해 지원자의 학업역량과 전공적합성을 평가합니다.
+평생학습자전형의 주요 특징은 다음과 같습니다:
+1. **모집인원 및 모집단위**:
+   - 미래융합대학 인문사회 학부에서 라이프융합학부 신설 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학) 11명을 모집합니다.
+   - 같은 학부에서 성인학습자(정원외)전형으로 23명을 모집합니다.
+2. **지원자격**:
+   - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자입니다.
+   - 만 18세 이상이어야 합니다 (출생년도: 2006년 3월 1일 이전 출생).
+3. **서류제출**:
+   - 고교 학교생활기록부 1부
+   - 검정고시 합격증서 사본 또는 합격증명서 1부 (검정고시출신자)
+   - 외국고교 졸업(예정)자의 경우 공증받은 외국고교 졸업(예정)증명서, 성적증명서 등이 필요합니다.
+4. **제출기간 및 장소**:
+   - 서류 제출 기간은 2024년 1월 3일 (수)부터 1월 12일 (금)까지입니다.
+   - 제출장소는 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀입니다.
+5. **평가요소 및 비율**:
+   - 서류 평가: 학생부종합(70%)
+   - 면접 평가: 학생부종합(30%)
+6. **면접평가 내용**:
+   - 지원동기 및 학업계획
+   - 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+   - 기타사항 확인 (서류평가 시 작성된 면접질문지를 활용하여 제출서류 진위여부 검증)
+7. **동점자 처리기준**:
+   - 면접고사 성적 상위자 우선
+   - 서류평가 공동체역량 영역 성적 상위자 우선
+   - 서류평가 전공적합성 영역 성적 상위자 우선
+8. **서류평가의 부정적 사례**:
+   - 학교생활기록부 작성 과정에서 개인의 구체적인 경험과 노력에 근거하지 않고 과장되고 호의적으로 기재하는 경우
+   - 학교생활기록부 각 영역에 기술된 내용을 뒷받침할 수 있는 구체적인 근거가 미약한 경우
+   - 논리적 연계성이 미흡한 경우 등이 있습니다.
+평생학습자전형은 평생교육을 받은 학력 소지자를 대상으로 하며, 지원자는 자신의 학업역량과 전공적합성을 잘 보여줄 수 있는 서류를 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>0.4598930481283422</v>
+      </c>
+      <c r="E244" t="n">
+        <v>0.2079314040728832</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0.2502673796791444</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원 자격은 다음과 같습니다:
+1. 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자입니다.
+이러한 자격을 갖춘 지원자가 해당 전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>0.6301369863013698</v>
+      </c>
+      <c r="E245" t="n">
+        <v>0.5633802816901408</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0.6301369863013698</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 실기고사에 대한 정보를 보면, 실기종목을 수행할 때는 운동복 및 운동화를 착용해야 합니다. 특수화(스파이크, 축구화 등)는 불가하며, 신발바닥에는 이물질이 가착되지 않도록 해야 합니다.
+具体的来说，实操考试时需要穿运动服和运动鞋。特殊鞋子（如钉鞋、足球鞋等）是不允许的，并且鞋子底部不能有附着物。
+如果您想了解具体的考场信息或其他细节，请访问该大学的官方网站或直接联系学校招生办公室以获取更详细的信息。</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E246" t="n">
+        <v>0.0273972602739726</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같이 진행됩니다:
+1. **일정**: 
+   - 2024년 1월 16일 (화)에 실기고사가 치러집니다.
+2. **대기실 및 입실시간 안내**:
+   - 2024년 1월 12일 (금) 오후 2시 이후, 입학안내 홈페이지에서 대기실 및 입실 시간을 확인할 수 있습니다.
+3. **장소**: 
+   - 체육학과의 실기고사는 해당 학과의 시설에서 치러집니다. 정확한 장소는 일정 공고와 함께 입학안내 홈페이지를 통해 안내됩니다.
+참조된 정보는 전형일정 표에서 얻었습니다.</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>0.2318840579710145</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="F247" t="n">
+        <v>0.2028985507246376</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>2차 충원합격자 발표 시 전화로 개별 연락을 하지는 않습니다. 최초합격자 및 1차, 2차 충원합격자는 홈페이지를 통해 합격 여부를 확인해야 합니다. 합격 여부를 확인하지 않아 등록하지 못했다 하더라도 등록(입학) 포기자로 간주됩니다.
+따라서 수시 충원합격자 발표 후에는 반드시 합격자 발표 페이지에서 자신의 상태를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="E248" t="n">
+        <v>0.423841059602649</v>
+      </c>
+      <c r="F248" t="n">
+        <v>0.4967320261437909</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 정보가 제공된 데이터에서 직접 확인할 수 없습니다. 제공된 내용은 주로 2024학년도의 모집요강과 일정, 전형방법 등에 관한 정보를 포함하고 있습니다.
+만약 2023학년도 경찰행정학과의 수시모집 결과가 궁금하다면, 일반적으로 다음과 같은 방법을 통해 확인할 수 있습니다:
+1. 동의대학교 입학관리 홈페이지에서 과거 자료를 검색합니다.
+2. 교육부나 한국대학입시정보원(KAIS) 등 공식 사이트에서 관련 정보를 찾아봅니다.
+3. 동의대학교 입학처에 직접 문의하여 확인합니다.
+만약 이러한 방법으로도 정보를 얻을 수 없다면, 제공된 데이터와 관련 없는 질문이라는 점을 알려드리겠습니다.</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>0.2826086956521739</v>
+      </c>
+      <c r="E249" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="F249" t="n">
+        <v>0.2065217391304348</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>2024년 대학입학전형에서 일부 전형에서는 수능을 응시하지 않아도 지원이 가능합니다. 특히, 학생부종합전형과 실기/실적 위주전형인 경기실적우수자전형은 수능 점수가 아닌 다른 평가 기준에 따라 선발됩니다.
+1. **학생부종합전형**:
+   - **조기취업형계약학과전형**: 서류평가와 면접고사를 통해 학생의 학교생활, 진로계획 등을 종합적으로 평가합니다.
+   - **평생학습자전형, 성인학습자(정원내/외)전형, 재직자전형**: 학생부 교과성적, 면접 등 다양한 평가 기준을 통해 선발합니다.
+2. **실기/실적 위주전형**:
+   - **경기실적우수자전형**: 실기나 실적을 중심으로 평가하며, 수능 점수가 아닌 학생의 실력을 종합적으로 판단합니다.
+따라서, 수능을 응시하지 않아도 특정 전형에서는 지원이 가능합니다. 하지만 일반학생전형인 &lt;가&gt;군과 &lt;다&gt;군은 대체로 수능 성적이 중요한 평가 기준입니다. 
+더 자세한 정보는 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 참조하시거나, 해당 대학의 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>0.05691056910569105</v>
+      </c>
+      <c r="E250" t="n">
+        <v>0.00819672131147541</v>
+      </c>
+      <c r="F250" t="n">
+        <v>0.04878048780487805</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>10년 전에 고등학교를 졸업했다면, 일반적으로 대학의 정시 모집에서 지원할 수 없습니다. 대부분의 대학은 고등학교 졸업 후 3년 이내에 입학하기 위한 조건을 두고 있습니다.
+하지만 동의대학교에서는 특별한 경우로 "학생부종합(평생학습자전형)"이라는 전형을 통해 평생학습자나 재직자를 대상으로 지원할 수 있는 기회가 있습니다. 이 전형은 고등학교 졸업 후 3년 이상이 지났더라도, 학력이 대학 수학능력에 현저히 미달되지 않는다면 지원 가능합니다.
+"학생부종합(평생학습자전형)"의 지원 자격과 제출 서류 등 자세한 내용은 다음과 같습니다:
+- **지원 자격**: 고등학교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자
+- **제출서류**:
+  - 성명, 주민등록번호, 수험번호
+  - 전화번호, 추가연락처, 이메일주소
+  - 출신 고교 정보 (최종 학력 구분, 고교명, 졸업(예정) 연도)
+  - 기타 필요한 서류
+따라서, 동의대학교 "학생부종합(평생학습자전형)"을 통해 지원 가능합니다. 자세한 내용은 [동의대학교 입학 홈페이지](https://ipsi.deu.ac.kr/main.do)를 참조하시거나 학교에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>0.2585034013605442</v>
+      </c>
+      <c r="E251" t="n">
+        <v>0.0684931506849315</v>
+      </c>
+      <c r="F251" t="n">
+        <v>0.1496598639455782</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시모집의 주요 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화)
+   - 입학안내 홈페이지에서 공고가 발표됩니다.
+2. **원서접수(인터넷)**: 2024년 1월 3일 (수) ~ 2024년 1월 6일 (토) 마감일 18시까지
+   - 접수 사이트는 http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com 입니다.
+3. **서류 제출 (제출서류가 있는 경우)**: 2024년 1월 3일 (수) ~ 2024년 1월 12일 (금) 마감일 17시까지 도착
+   - 서류 제출 대상은 각 전형별 세부 안내를 참조해야 합니다.
+   - 제출 방법: 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편발송이 가능합니다.
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**: 2024년 1월 16일 (화)
+   - 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14:00 이후에 입학안내 홈페이지에서 확인 가능합니다.
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**: 2024년 1월 17일 (수)
+   - 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14:00 이후에 입학안내 홈페이지에서 확인 가능합니다.
+6. **합격자 발표 및 등록금 납부**
+   - **최초 합격자 발표**: 2024년 2월 2일 (금) 14:00
+     - 홈페이지에서 개별 조회 가능, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령 가능.
+   - **최초 합격자 등록**: 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화) (은행마감시간 내)
+     - 홈페이지에서 개별 조회, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령 가능.
+   - **충원 합격자 발표 및 등록**
+     - **1차 충원 합격자 발표**: 2024년 2월 14일 (수) 09:00
+       - 홈페이지에서 개별 조회, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령 가능.
+     - **1차 충원 합격자 등록**: 2024년 2월 14일 (수) 09:00 ~ 16:00
+       - 홈페이지에서 개별 조회, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령 가능.
+     - **2차 충원 합격자 발표**: 2024년 2월 15일 (목) 09:00
+       - 홈페이지에서 개별 조회, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령 가능.
+     - **2차 충원 합격자 등록**: 2024년 2월 15일 (목) 09:00 ~ 16:00
+       - 홈페이지에서 개별 조회, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령 가능.
+     - **3차 이후 충원 합격자 발표**: 2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지
+       - 홈페이지에서 개별 조회, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령 가능.
+     - **3차 이후 충원 합격자 등록**: 개별 전화 통보 시 안내
+7. **환불 신청기간**: 2024년 2월 14일 (수) ~ 2024년 2월 20일 (화) 12:00
+   - 환불 절차는 입학안내 홈페이지에서 온라인으로 진행됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부해야 합니다. 지정 기일 내에 등록금을 납부하지 않는 경우 우리대학 입학을 포기하는 것으로 간주됩니다.
+상세한 정보는 [입학안내 홈페이지](http://ipsi.deu.ac.kr)를 참조하시거나 문의주시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>0.6961690885072654</v>
+      </c>
+      <c r="E252" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="F252" t="n">
+        <v>0.6221928665785996</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화)
+   - 입학안내 홈페이지에서 공고가 게재됩니다.
+2. **원서접수(인터넷)**: 2024년 1월 3일 (수) ~ 6일 (토), 마감시간은 각 사이트별로 18시까지입니다.
+   - 접수사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출**: 2024년 1월 3일 (수) ~ 12일 (금), 마감시간은 각 사이트별로 17시까지입니다.
+   - 서류제출 대상: 일부 모집단위에 따라 다릅니다. (세부 안내는 입학안내 홈페이지 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편발송
+4. **&lt;가&gt;군 실기고사**: 2024년 1월 16일 (화)
+   - 레저스포츠학과, 태권도학과에서 실시
+   - 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14:00 이후에 입학안내 홈페이지에서 확인 가능
+5. **&lt;나&gt;군 실기고사**: 2024년 1월 17일 (수)
+   - 디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과에서 실시
+   - 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14:00 이후에 입학안내 홈페이지에서 확인 가능
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일 (금), 14:00
+     - 홈페이지에서 개별 조회 가능, 고지서는 출력 또는 입학관리팀에서 수령 가능
+     - 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024년 2월 7일 (수) ~ 13일 (화), 은행마감시간 내
+     - 홈페이지에서 개별 조회 가능, 고지서는 출력 또는 입학관리팀에서 수령 가능
+     - 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 발표 및 등록:
+     1차: 2024년 2월 14일 (수), 09:00
+        - 홈페이지에서 개별 조회 가능, 고지서는 출력 또는 입학관리팀에서 수령 가능
+        - 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+     2차: 2024년 2월 15일 (목), 09:00 ~ 16:00
+        - 홈페이지에서 개별 조회 가능, 고지서는 출력 또는 입학관리팀에서 수령 가능
+        - 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+     3차 이후: 2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지
+        - 홈페이지에서 개별 조회 가능, 고지서는 출력 또는 입학관리팀에서 수령 가능
+        - 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+이 일정을 준수하여 지원하시면 됩니다. 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 하며, 지정 기일 내에 등록금을 납부해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>0.7144240077444337</v>
+      </c>
+      <c r="E253" t="n">
+        <v>0.4946653734238603</v>
+      </c>
+      <c r="F253" t="n">
+        <v>0.5788964181994191</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 수능 미응시자도 지원이 가능한 전형은 다음과 같습니다:
+1. 나군 실기/실적(경기실적우수자전형)
+2. 나군 학생부교과(농어촌학생전형)
+이 두 전형에서는 수능 점수가 요구되지 않습니다. 
+- 나군 실기/실적(경기실적우수자전형)은 경기 실적을 기반으로 평가합니다.
+- 나군 학생부교과(농어촌학생전형)는 학생부 교과 성적을 주요 평가 요소로 사용합니다.
+따라서 수능 미응시자도 이 두 전형에서 지원이 가능합니다.</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="E254" t="n">
+        <v>0.1006289308176101</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0.1987577639751553</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>2024년 전형 일정을 보면, 전자공학과의 충원 합격자는 다음과 같이 발표 및 등록되었습니다:
+1. **1차 충원 합격자 발표**: 2024년 2월 14일(수) 09:00
+2. **1차 충원 합격자 등록**: 2024년 2월 14일(수) 09:00~16:00
+따라서 전년도에 전자공학과의 충원 합격은 최대 1차까지 이루어졌습니다.</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>0.3050847457627118</v>
+      </c>
+      <c r="E255" t="n">
+        <v>0.1551724137931035</v>
+      </c>
+      <c r="F255" t="n">
+        <v>0.2711864406779661</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 동의대학교 입학처의 전화번호가 포함되어 있지 않습니다. 동의대학교 웹사이트나 공식 문서를 확인하시거나, https://ipsi.deu.ac.kr/main.do 주소로 접속하여 더 자세한 정보를 찾아보시는 것이 좋습니다. 또한, 대학교 입학 홈페이지나 고객센터 번호도 참고하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>0.1643835616438356</v>
+      </c>
+      <c r="E256" t="n">
+        <v>0</v>
+      </c>
+      <c r="F256" t="n">
+        <v>0.1095890410958904</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 실시할 경우, 전화 통화가 되지 않는다면 해당 지원자는 등록 포기자로 간주됩니다. 따라서 지원자는 전화 통화를 받지 못하는 일이 없도록 유의해야 합니다.
+이 점을 명심하여 2024년 2월 15일(목)부터 2024년 2월 20일(화)까지 이 기간 동안 전화 통화를 받을 수 있도록 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>0.5935483870967742</v>
+      </c>
+      <c r="E257" t="n">
+        <v>0.3660130718954248</v>
+      </c>
+      <c r="F257" t="n">
+        <v>0.4645161290322581</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>6년 과정 또는 12년 과정에 따른 농어촌학생전형의 지원을 위해서는 다음과 같은 서류를 제출해야 합니다:
+### 6년 과정
+- 지원자 본인의 가족관계증명서 (1부)
+- 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+- 중학교 학교생활기록부 (1부) - 교육기관, 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능
+- 고등학교 학교생활기록부 (1부) - 학생부 온라인 제공 비대상교 및 미동의자에 한해 제출 필요. 부모가 사망한 경우, 사망한 부 또는 모의 기본증명서 1부(기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부)를 추가로 제출해야 합니다.
+- 부모가 이혼한 경우, 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부와 본인의 기본증명서(상세) 1부를 추가로 제출해야 합니다.
+### 12년 과정
+- 지원자 본인의 주민등록초본 (1부)
+- 초등학교 학교생활기록부 (1부)
+- 중학교 학교생활기록부 (1부)
+- 고등학교 학교생활기록부 (1부) - 학생부 온라인 제공 비대상교 및 미동의자에 한해 제출 필요
+이러한 서류들은 2024년 1월 3일부터 1월 12일까지 17:00까지 도착분에 한하여 제출해야 하며, (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀으로 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>0.6834319526627219</v>
+      </c>
+      <c r="E258" t="n">
+        <v>0.4747774480712166</v>
+      </c>
+      <c r="F258" t="n">
+        <v>0.5621301775147929</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원 시 제출해야 하는 서류는 다음과 같습니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+이 외에 추가적인 서류는 필요하지 않습니다.
+참고로, 중·고등학교 재학 시 부모 모두 농어촌(읍∙면)지역에서 거주한 자는 '6년과정'의 서류를 제출할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>0.6133333333333333</v>
+      </c>
+      <c r="E259" t="n">
+        <v>0.4753363228699552</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>提供的信息中没有明确提到关于低收入机会均等类型的单独招生计划。根据现有内容，主要描述了不同类型的招生计划及其具体要求和流程，但并未提及针对低收入家庭学生的特殊招生计划。
+如果您想了解有关低收入机会均等类型的信息，建议直接访问东国大学的官方网站（https://ipsi.deu.ac.kr/main.do）进行查询，或者联系学校的招生办公室获取更详细的信息。</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>0</v>
+      </c>
+      <c r="E260" t="n">
+        <v>0</v>
+      </c>
+      <c r="F260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 등급 평균 산출 시 소수점 셋째 자리에서 절사 처리한다는 내용이 포함되어 있습니다.
+따라서, 사탐(사회) 2과목의 평균을 계산할 때 2.5등급이 나오더라도 소수점 셋째자리에서 절사하면 2등급으로 반영됩니다.
+예를 들어:
+- 과목1: 3등급
+- 과목2: 2등급
+평균 = (3 + 2) / 2 = 2.5 등급
+절사 처리 후 = 2 등급
+따라서, 2.5등급은 2등급으로 반영됩니다.
+관련 내용을 확인하기 위해 공지사항이나 입학처 웹사이트를 참조하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>0.2742857142857143</v>
+      </c>
+      <c r="E261" t="n">
+        <v>0.08092485549132948</v>
+      </c>
+      <c r="F261" t="n">
+        <v>0.2171428571428571</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 충원 합격자 발표는 3차까지 있습니다. 구체적으로 다음과 같습니다:
+1. 2024년 2월 14일(수) 09:00 - 1차 충원 합격자 발표 및 등록
+2. 2024년 2월 15일(목) 09:00 - 2차 충원 합격자 발표 및 등록
+3. 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지 - 3차 이후 충원 합격자 발표 (개별 전화 통보)
+이 중 1차와 2차는 인터넷을 통해 발표되며, 3차 이후의 경우 개별 전화 통보를 통해 발표됩니다.</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>0.561576354679803</v>
+      </c>
+      <c r="E262" t="n">
+        <v>0.3582089552238805</v>
+      </c>
+      <c r="F262" t="n">
+        <v>0.4236453201970444</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>4.6이라는 점수는 수능 영어 등급을 나타내는 것으로 보입니다. 수능 영어 등급에 따른 점수표를 확인해보겠습니다.
+[표 내용]
+```
+1 / 139 /
+2 / 131 /
+3 / 123 /
+4 / 115 /
+5 / 107 /
+6 / 99 /
+7 / 91 /
+8 / 83 /
+9 / 75 /
+```
+4.6 등급은 8등급에 해당합니다. 따라서 4.6 등급의 영어 점수는 83점입니다.
+다군 수능(일반학생전형)의 경우, 수능 성적 반영 방식은 다음과 같습니다:
+[표 내용]
+```
+다군 수능(일반학생전형) / 인문사회과학대학, 상경대학 모집단위 / 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+```
+따라서 4.6 등급의 영어 점수가 83점이면, 이 점수는 합격에 기여하게 됩니다.
+하지만 추가 합격 가능성은 다음과 같은 요인들에 따라 달라질 수 있습니다:
+1. **모집인원과 지원자 수**: 각 모집단위의 모집인원과 지원자의 수에 따라 경쟁률이 결정됩니다.
+2. **기타 성적**: 국어, 수학, 탐구 영역 등 다른 과목의 성적이 중요합니다.
+3. **전형요소**: 일부 전형에서는 면접이나 서류평가 등의 요소가 포함될 수 있습니다.
+따라서 4.6 등급의 영어 점수만으로는 확실한 추가 합격을 보장할 수 없습니다. 다른 과목 성적과 지원자의 경쟁률 등을 고려해야 합니다.
+추가 정보를 원하시면, 해당 대학의 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>0.3031301482701812</v>
+      </c>
+      <c r="E263" t="n">
+        <v>0.07933884297520663</v>
+      </c>
+      <c r="F263" t="n">
+        <v>0.1449752883031301</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 e비즈니스학과의 정시 모집요강을 고려해보겠습니다.
+1. **모집 인원**: e비즈니스학과는 30명을 모집합니다.
+2. **전형 유형**: e비즈니스학과는 학생부종합전형으로 모집됩니다.
+3. **등급 평균 및 경쟁률**: 수능 등급 5.3은 상당히 높은 점수입니다. 2024년의 실제 경쟁률을 확인해야 하지만, 이 등급이 매우 높기 때문에 최초 합격 가능성은 있습니다.
+**주의사항:**
+- **경쟁률**: e비즈니스학과는 일반적으로 많은 지원자가 모집 인원보다 많아서 경쟁률이 높습니다. 2024년의 실제 경쟁률을 확인해야 합니다.
+- **학생부 종합 평가**: 학생부종합전형에서는 수능 등급 외에도 인성, 학업역량, 전공적합성 등을 종합적으로 평가합니다. 따라서 수능 등급 뿐만 아니라 기타 요소도 중요하게 고려됩니다.
+- **최초 합격 가능성**: 5.3의 등급은 매우 높기 때문에 최초 합격 가능성은 있습니다. 하지만 경쟁률과 지원자의 전체 평가 결과에 따라 결정될 수 있으므로 확실한 것은 아닙니다.
+**추천 조치:**
+- **전형 요소 확인**: e비즈니스학과의 전형요소와 평가 기준을 자세히 확인하여 준비하세요.
+- **추천서 및 자기소개서 작성**: 이 부분은 학생부종합전형에서 중요한 역할을 합니다. 잘 작성해보세요.
+- **면접 준비**: 면접에서도 좋은 성적을 받기 위해 충분한 준비를 하세요.
+결론적으로, 5.3의 수능 등급으로 e비즈니스학과에 최초 합격 가능성은 있습니다만, 정확한 확률을 알기 위해서는 2024년의 실제 모집 상황과 경쟁률 등을 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>0.2696078431372549</v>
+      </c>
+      <c r="E264" t="n">
+        <v>0.08866995073891627</v>
+      </c>
+      <c r="F264" t="n">
+        <v>0.1715686274509804</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接关于e비즈니스학전공(电子商务学专业)的预录取分数线或标准。但是，根据一般情况和给定的信息，我们可以提供一些参考建议：
+1. **综合评价**：对于e비즈니스학전공（电子商务学专业），通常会考虑学生的学业成绩、共同体能力、专业适应性等多方面因素。
+2. **学业成绩**：
+   - 一般来说，需要在国语、数学和英语等主要科目中取得较好的成绩。
+   - 具体来说，反应当年的学生部教科成绩（8或12个科目中的前几名）。
+3. **共同体能力**：这通常包括团队合作能力和社区参与度。如果有相关的社团活动经历或者志愿者服务记录会更有帮助。
+4. **专业适应性**：展示对电子商务专业的兴趣和相关经验，比如实习、项目经验等。
+5. **其他因素**：
+   - 如果有特殊才能或特长（如编程技能），也可以在申请中体现。
+   - 个人陈述或推荐信也可能有助于提升申请竞争力。
+根据您提供的信息，如果您的学业成绩处于前列，并且能够展示出良好的共同体能力和专业适应性，那么预录取38名的成绩应该还是有机会的。但具体能否预录取还需要参考当年的具体招生政策和竞争情况。
+建议：
+- 仔细查看该专业的具体要求。
+- 参考往年的录取分数线或标准。
+- 如果可能的话，咨询学校的招生办公室获取更准确的信息。
+希望这些建议对您有所帮助！如果还有其他问题，请随时提问。</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>0.1408450704225352</v>
+      </c>
+      <c r="E265" t="n">
+        <v>0.02857142857142857</v>
+      </c>
+      <c r="F265" t="n">
+        <v>0.1267605633802817</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>3.44이라는 성적이 동의대학교 간호학과에 충분한지 확실하지는 않습니다. 하지만 몇 가지 요소를 고려해보면:
+1. **전체 경쟁률**: 동의대학교 간호학과의 경쟁률이 매우 높습니다 (예: 4.60). 이는 합격하기 위해 높은 성적이 필요할 수 있음을 의미합니다.
+2. **성적 평균**: 표에서 보듯이, 동의대학교 간호학과의 성적 평균은 대체로 높습니다 (예: 3.88). 하지만 일부 합격자들의 성적도 3.44와 비슷하거나 약간 낮은 경우가 있습니다.
+3. **전공적합성**: 간호학과는 전공적합성이 매우 중요합니다. 자신의 의료 관련 경험, 관심사 등을 잘 설명하고 준비한다면 이 부분에서 좋은 점수를 받을 수 있습니다.
+4. **면접 성적**: 면접에서도 높은 점수를 받으면 합격 가능성은 높아집니다 (예: 5.28).
+따라서, 단순히 성적이 낮다고 해서 불합격할 것이라고는 할 수 없습니다. 전공적합성과 면접 준비가 중요합니다. 또한, 동의대학교 입학 홈페이지나 학부모 포럼 등을 통해 최신 정보와 조언을 얻어보시는 것도 도움이 될 것입니다.
+만약 확실한 답변이 필요하다면, 동의대학교에 직접 문의하거나 전문적인 상담을 받는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>0.2532467532467533</v>
+      </c>
+      <c r="E266" t="n">
+        <v>0.07843137254901961</v>
+      </c>
+      <c r="F266" t="n">
+        <v>0.1233766233766234</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 모집요강을 바탕으로 분석해보겠습니다.
+간호학과는 나군 학생부종합(조기취업형계약학과전형)에 해당하며, 정원외 모집단위입니다. 이 전형의 경우, 학생부 교과성적과 면접 성적이 각각 60%와 40%로 반영됩니다.
+간호학과의 정원외 모집인원은 7명이며, 최종 등록자에 대한 평가 영역별 세부평가 기준을 보면 다음과 같습니다:
+- **공동체역량**: 협업능력, 학업태도, 학업성취, 열정
+- **학업역량**: 출결상황, 창의적체험활동상황, 교과학습발달상황(세부능력 및 특기사항 포함), 행동특성 및 종합의견
+- **전공적합성**: 지원전공(계열) 관련 활동과 경험, 학업의지, 학교생활의 적극적 참여
+정시 성적이 2.52라는 점을 고려하면, 이는 대체로 중간 수준의 성적입니다. 그러나 간호학과는 전공적합성과 학업역량이 중요한 평가 요소로 포함되어 있습니다.
+따라서, 다음과 같은 조건들이 충족된다면 최종 합격 가능성은 높을 수 있습니다:
+1. **전공적합성**: 관련 활동이나 경험을 잘 보여줄 수 있어야 합니다.
+2. **학업역량**: 출결이 좋고, 창의적 체험활동과 교과학습발달 상황에서 좋은 성적을 거두어야 합니다.
+3. **면접 성적**: 면접에서도 좋은 평가를 받는 것이 중요합니다.
+따라서, 정시 성적이 2.52라는 점만으로는 확실한 합격 여부를 판단하기 어렵습니다. 전공적합성과 학업역량을 잘 보여줄 수 있는 서류와 면접 준비가 필요합니다. 또한, 동의대학교 입학관리팀에 문의하여 최종 합격 가능성을 확인하는 것이 좋겠습니다.
+만약 추가 정보나 자세한 질문이 있으시다면 언제든지 알려주세요!</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>0.163855421686747</v>
+      </c>
+      <c r="E267" t="n">
+        <v>0.04358353510895883</v>
+      </c>
+      <c r="F267" t="n">
+        <v>0.1060240963855422</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>3.7의 성적은 중간적인 점수로, 간호학과의 경우 일반적으로 높은 수능 성적을 요구하는 경향이 있습니다. 그러나 정시 모집에서 합격 가능성은 다음과 같은 요인들에 따라 달라질 수 있습니다:
+1. **학교별 기준**: 각 대학마다 간호학과의 정시 모집에서 요구하는 최저 점수는 다릅니다. 일부 대학에서는 4.0 이상을 요구할 수도 있고, 다른 대학에서는 3.5~3.7 정도의 성적도 합격 가능성을 열어두고 있습니다.
+2. **모집인원**: 모집인원이 많다면 더 많은 지원자가 낮은 점수를 가지고도 합격할 수 있는 가능성은 높아집니다.
+3. **지원자들의 성적 분포**: 전체 지원자의 성적이 어떻게 분포되어 있는지에 따라 3.7의 성적은 좋은 점수일 수도 있고, 평균적으로 낮을 수도 있습니다.
+4. **추천서나 자기소개서 등 추가 자료**: 일부 학교에서는 추천서, 자기소개서 등의 서류평가를 통해 지원자의 전반적인 능력을 판단하기도 합니다. 이 부분에서 좋은 점수를 받으면 성적만으로는 불리한 점수라도 합격 가능성은 높아질 수 있습니다.
+5. **면접 결과**: 일부 대학에서는 면접을 통한 인성 및 역량 평가를 통해 합격자를 선발하기도 합니다. 이 부분에서 좋은 성적을 받으면 도움이 될 수 있습니다.
+따라서, 정확한 답변을 위해서는 해당 대학의 간호학과 정시 모집의 최저 점수 기준과 지원자의 전체 성적 분포를 확인해야 합니다. 또한, 입학사정관들이 평가하는 요인들을 고려하여 준비하는 것이 중요합니다.
+추천되는 조치:
+- 해당 대학의 공식 홈페이지나 입학처에 문의하여 정시 모집에서 간호학과의 최저 점수 기준을 확인하세요.
+- 지원자의 전체 성적 분포와 비교해보세요.
+- 추천서, 자기소개서 등을 잘 준비하고 면접에서도 좋은 결과를 얻도록 노력하세요.
+이런 정보들을 종합적으로 고려하여 합격 가능성 평가를 진행하시면 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>0.1582417582417582</v>
+      </c>
+      <c r="E268" t="n">
+        <v>0.03090507726269315</v>
+      </c>
+      <c r="F268" t="n">
+        <v>0.09670329670329671</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 모집에서는 수능 점수만을 기준으로 합격 여부를 판단하기보다는 종합적인 평가가 이루어집니다. 간호학과는 일반적으로 학업역량, 전공적합성 등 다양한 요소를 고려하여 지원자를 선발합니다.
+다만, 수능 점수 2.58은 상대적으로 낮은 점수로, 이 점수로 정시로 간호학과에 합격하기는 어렵다고 볼 수 있습니다. 하지만 최종 합격 여부는 다음과 같은 요소들에 따라 결정됩니다:
+1. **학생부 성적**: 고등학교 시절의 성적이 중요합니다.
+2. **면접 성적**: 면접에서 지원자의 의사결정 능력, 진로 이해도 등을 평가받습니다.
+3. **진로계획 및 동기**: 지원동기에 대한 설명과 미래 계획이 중요합니다.
+따라서, 수능 점수 2.58으로 간호학과에 정시로 합격하기 위해서는:
+- **학생부 성적**이 높아야 합니다.
+- **면접 준비**를 철저히 해야 합니다.
+- **진로계획 및 동기**가 명확하고 설득력 있어야 합니다.
+정확한 합격 가능성 판단을 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. 또한, 동의대학교 간호학과의 정시 모집요강을 꼭 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>0.2171052631578947</v>
+      </c>
+      <c r="E269" t="n">
+        <v>0.0662251655629139</v>
+      </c>
+      <c r="F269" t="n">
+        <v>0.1447368421052632</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교의 전형 정보를 바탕으로 답변 드리겠습니다.
+게임공학과는 나군 수능(일반학생전형) 모집단위에 해당하며, 이 모집단위의 경우 실기나 서류 평가 요소가 없습니다. 따라서 게임공학과의 예비번호 7번을 붙으시면 됩니다.
+주의할 점은:
+1. 최종 합격 여부는 수능 성적에 따라 결정되므로, 수능 성적이 중요합니다.
+2. 전형일정을 준수하여 원서를 접수하고, 등록금 납부 기한 내에 등록금을 납부해야 합니다.
+만약 추가로 궁금한 사항이 있으시다면, 동의대학교 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)를 참조하시거나 직접 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>0.281081081081081</v>
+      </c>
+      <c r="E270" t="n">
+        <v>0.04371584699453552</v>
+      </c>
+      <c r="F270" t="n">
+        <v>0.1513513513513514</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>4.16이라는 점수는 현재 수능 평균점수가 높은 상황에서 보자면 상대적으로 낮은 점수입니다. 동의대학교 게임공학과는 일반적으로 경쟁률이 높은 모집단위로, 수능 성적 기준으로도 선발 대상자가 많아지기 때문에 추가 합격 가능성은 낮을 것으로 예상됩니다.
+다만, 정시 전형에서 합격 여부는 여러 요소가综上所述，如果考生的高考成绩为4.16（假设这里的4.16是指某一分数段或具体分数），那么他/她申请东国大学游戏工学专业时，通过额外录取的可能性较低。这是因为：
+1. **竞争激烈**：游戏工学专业的录取通常非常激烈，尤其是对于高分考生的竞争更为激烈。
+2. **成绩要求**：东国大学该游戏专业可能有较高的成绩门槛，4.16的成绩在当前的高考分数分布中属于偏低水平。
+3. **其他因素**：除了成绩外，还有面试、个人陈述等其他评估环节，这些也可能影响录取结果。
+因此，建议考生详细了解该专业的具体录取标准和要求，并准备充分。如果担心通过率较低，可以考虑申请一些相对竞争较小的专业或学校作为备选方案。同时，也可以关注学校的补充录取信息，以便及时了解是否有额外的录取机会。</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>0.2824858757062147</v>
+      </c>
+      <c r="E271" t="n">
+        <v>0.05714285714285715</v>
+      </c>
+      <c r="F271" t="n">
+        <v>0.1581920903954802</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 경영정보학과의 경우, 정시모집군 &lt;나&gt;군에 해당하며, 학생부종합전형을 통해 모집됩니다.
+학생부 종합 전형의 평가 영역은 다음과 같습니다:
+- 공동체역량
+- 학업역량 
+- 전공적합성
+평가 요소 중 학업역량 부분에서 국어, 수학, 영어 등급이 중요한 역할을 합니다. 하지만 단순히 성적이 3.75라는 점만으로는 최초등록자로 확정되는 것은 불가능합니다.
+최종적으로 결정되는 것은 면접 결과와 학생부 등의 서류 평가, 그리고 전반적인 적합성 평가입니다. 따라서 국어, 수학, 영어 등급이 3.75라는 점은 좋은 성적일 수 있지만, 다른 평가 요소들까지 고려하여 최종 결정됩니다.
+따라서 단순히 국어, 수학, 영어 등급만으로는 최초등록자로 확정되는 것은 어렵습니다. 전반적인 학생부와 면접 결과 등을 종합적으로 평가받아야 합니다.
+추가 정보:
+- 경영정보학과는 정시모집군 &lt;나&gt;군에 해당합니다.
+- 학생부종합전형에서는 국어, 수학, 영어 등급이 중요하지만, 면접 결과와 학생부 등의 서류 평가도 함께 고려됩니다.
+따라서 최초등록자로 확정되기 위해서는 전반적인 평가에서 우수한 성적을 보여줘야 합니다.</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>0.2262996941896024</v>
+      </c>
+      <c r="E272" t="n">
+        <v>0.05538461538461539</v>
+      </c>
+      <c r="F272" t="n">
+        <v>0.1406727828746177</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 경영정보학과의 경우, 정시 모집에서는 학생부교과와 수능 점수를 종합적으로 평가합니다. 하지만 단순히 수능 성적이 4.2라는 정보만으로는 최초등록자로 가능할 것인지 판단하기 어렵습니다.
+주요 평가 요소들은 다음과 같습니다:
+1. **수능 성적**: 경영정보학과의 경우, 국어, 수학, 영어 등 주요 과목의 성적이 중요합니다. 4.2라는 점수가 어느 과목에서 나왔는지 확인해야 합니다.
+2. **학생부 교과성적**: 학생부 교과성적은 학업역량을 평가하는 중요한 요소입니다. 특히 경영정보학과와 관련된 과목의 성적이 중요합니다.
+3. **전공 적합성**: 지원자의 전공 적합성을 평가하기 위해, 지원자가 해당 분야에 대한 관심과 열정이 있는지 확인됩니다.
+4. **면접 및 서류평가**: 일부 모집단위에서는 면접이나 서류평가를 통해 지원자의 역량을 추가로 평가할 수 있습니다.
+따라서, 단순히 수능 성적이 4.2라는 정보만으로는 최초등록자로 가능할 것인지 판단하기 어렵습니다. 전체적인 학업성적과 전공 적합성을 고려해야 합니다. 
+추가적으로, 동의대학교 입학 홈페이지나 해당 모집단위의 공지사항을 확인하여 자세한 평가 기준을 파악하는 것이 좋습니다.
+만약 자세한 정보를 원하시면, 동의대학교 입학관리팀에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>0.2163742690058479</v>
+      </c>
+      <c r="E273" t="n">
+        <v>0.04117647058823529</v>
+      </c>
+      <c r="F273" t="n">
+        <v>0.1345029239766082</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 경영정보학과 일반학생전형에 대한 최종합격자 표를 보면, 수능 점수와 경쟁률 등이 제공되지 않았습니다. 하지만 일반적으로 경영정보학과는 중간 이상의 수능 점수가 필요합니다.
+5.33이라는 표준점수는 상당히 낮은 점수로 보입니다 (평균 5.0, 표준편차 0.25를 가정하면 5.33은 약 1.2 표준편차 이상 높은 점수입니다). 이 점수만으로는 경영정보학과의 합격을 보장할 수 없습니다.
+다음 사항들을 고려해보세요:
+1. **경쟁률**: 경영정보학과의 경쟁률이 매우 높다면, 낮은 표준점수로 합격하기 어렵습니다.
+2. **모집인원 및 지원자 수**: 모집인원이 적고 지원자가 많으면 낮은 점수로도 합격할 가능성이 있습니다.
+3. **전형요소**: 일부 전형에서는 실적이나 면접 등 다른 요소가 중요하게 작용하기 때문에, 단순히 수능 점수만으로 판단하기는 어렵습니다.
+따라서 정확한 답변을 위해서는 해당 학과의 최종합격자 표를 확인하거나, 동의대학교 입학처에 직접 문의하는 것이 가장 좋습니다. 
+추가적으로, 다른 전형 (예: 학생부 종합전형)이나 대체 전형을 고려해보시는 것도 좋은 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>0.2145328719723183</v>
+      </c>
+      <c r="E274" t="n">
+        <v>0.04181184668989548</v>
+      </c>
+      <c r="F274" t="n">
+        <v>0.1384083044982699</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>3.33이라는 성적이 바이오응용공학부(바이오의약공학과, 의생명공학과, 식품공학과)에 최초 등록자로 합격하기는 어렵다고 볼 수 있습니다.
+다음은 이유들입니다:
+1. **경쟁률**: 바이오응용공학부 관련 학과들의 경쟁률이 매우 높습니다. 예를 들어, 의생명공학과의 경우 240명 중 99명만 선발되므로 매우 치열한 경쟁입니다.
+2. **성적 평균**: 표에서 보는 바와 같이, 바이오응용공학부 관련 학과들의 성적 평균은 대체로 높습니다. 예를 들어, 의생명공학과의 경우 영어 등급 평균이 4.53이고 수능 4개 영역 평균이 395.58점입니다.
+3. **성적 분포**: 표에서 보는 바와 같이 성적 분포가 상당히 높은 편에 속합니다. 예를 들어, 의생명공학과의 경우 수능 4개 영역 평균이 395.58점이고, 성적 등급 평균이 5.41입니다.
+따라서, 3.33이라는 성적은 매우 낮은 편이며, 이로써 최초 등록자로 합격하기는 어렵다고 판단됩니다. 하지만 정확한 결과를 확인하려면 해당 대학의 입학처 웹사이트나 전형요강을 참조하거나 직접 문의하는 것이 가장 확실합니다.
+추가적으로, 다른 지원 방법도 고려해볼 수 있습니다:
+- **2차 충원**: 최초 등록자가 모두 합격하지 못한 경우 2차 충원이 이루어질 수 있으므로 이 기회를 노릴 수 있습니다.
+- **전형 변경**: 다른 전형(예: 실기/실적 위주, 학생부종합 등)으로 지원해볼 수도 있습니다.
+결론적으로, 현재의 성적은 최초 등록자로 합격하기 어렵지만, 다양한 방법을 통해 입학 기회를 얻을 수 있으므로 추가적인 정보 수집과 전략 수립이 필요합니다.</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>0.2850356294536817</v>
+      </c>
+      <c r="E275" t="n">
+        <v>0.1193317422434368</v>
+      </c>
+      <c r="F275" t="n">
+        <v>0.1947743467933492</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>4.4등급으로 방사선학과에 지원하는 것은 가능하지만, 확률은 낮을 것입니다.
+방사선학과의 모집요강을 보면 다음과 같은 점들이 중요합니다:
+1. **성적 기준**: 방사선학과는 대체로 높은 성적을 요구합니다. 4.4등급은 평균 이상이지만, 대부분의 학생들은 더 높은 등급을 보여줍니다.
+2. **전형방법**: 일반학생전형에서는 종합적인 평가를 받습니다. 따라서 단순히 성적만으로는 충분하지 않습니다. 면접이나 서류평가에서도 좋은 점수를 받아야 합니다.
+3. **모집인원과 지원자 수**: 방사선학과의 모집인원이 제한적이므로, 많은 지원자가 경쟁합니다.
+4. **추천서나 특기사항**: 이와 같은 학과에서는 추천서나 특기사항 등 추가적인 자료가 중요할 수 있습니다.
+5. **면접 준비**: 면접에서도 좋은 성적을 보여주고, 방사선학과에 대한 열정과 적합성을 잘 표현해야 합니다.
+결론적으로 4.4등급으로는 낮은 확률로 합격할 수 있지만, 최선을 다해 지원하는 것이 중요합니다. 면접 준비와 서류 작성에도 신경 써야 하며, 추가적인 자료나 추천서를 준비하는 것도 도움이 될 수 있습니다.
+추가적으로, 동의대학교 입학 홈페이지나 학과 홈페이지에서 가장 최신 정보를 확인하시고, 필요하다면 학부모와 상담을 받으시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>0.2095808383233533</v>
+      </c>
+      <c r="E276" t="n">
+        <v>0.03614457831325301</v>
+      </c>
+      <c r="F276" t="n">
+        <v>0.1197604790419162</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>2.66이라는 GPA는 방사선학과의 경우 상대적으로 낮은 점수입니다. 방사선학과는 보통 전문성과 실무 능력이 중요하기 때문에, 학업 성적 외에도 면접이나 실기 평가 등에서 좋은 결과를 얻어야 합니다.
+다음은 고려해볼 수 있는 사항들입니다:
+1. **전반적인 평점**: 2.66은 중간 정도의 성적이지만, 방사선학과에서는 전공 관련 과목에서 높은 점수를 받는 것이 중요합니다.
+2. **면접 및 실기 평가**: 이 부분이 큰 비중을 차지하기 때문에 준비를 철저히 해야 합니다. 면접관들은 학생의 의사소통 능력, 전공에 대한 이해도 등을 평가할 것입니다.
+3. **추천서와 자기소개서**: 강사나 직장에서 받은 추천서는 매우 중요합니다. 자기소개서에서도 자신의 열정과 목표를 잘 표현해야 합니다.
+4. **추가 자격증이나 활동**: 관련 자격증 취득이나 별도의 활동 경력이 있다면 이점으로 활용할 수 있습니다.
+5. **전형별 특성**: 방사선학과는 실무 능력이 중요하기 때문에, 실기 평가에서 좋은 성적을 받는 것이 중요합니다.
+결론적으로 2.66은 위험한 점수일 수 있지만, 면접 및 실기 평가에서 높은 점수를 얻고, 추천서와 자기소개서에서도 강점을 보이면 합격 가능성은 여전히 있습니다. 준비를 철저히 하고, 전반적인 경쟁력을 극대화하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>0.2132564841498559</v>
+      </c>
+      <c r="E277" t="n">
+        <v>0.04057971014492754</v>
+      </c>
+      <c r="F277" t="n">
+        <v>0.138328530259366</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>3.66의 성적을 가지고 경찰행정학전공 농어촌 전형에 지원하셨다면, 합격 가능성은 낮다고 볼 수 있습니다.
+이유는 다음과 같습니다:
+1. 경찰행정학과는 보통 높은 점수를 요구합니다.
+2. 농어촌 학생 전형이라면 일반적으로 높은 성적을 기대하긴 합니다만, 3.66이라는 점수가 상당히 낮습니다.
+3. 경찰행정학과는 입시에서 높은 성적이 요구되는 편입니다.
+하지만 완전히 배제할 수는 없습니다. 다음과 같은 요인들이 합격 가능성에 영향을 줄 수 있습니다:
+1. 농어촌 거주 기간이 긴 경우
+2. 특별한 경력이나 활동이 있는 경우
+3. 면접에서 좋은 인상을 주는 경우
+결론적으로, 3.66이라는 성적만으로는 낮은 확률로 합격할 수 있을 것 같습니다. 하지만 최선을 다해 지원하시고, 가능하다면 다른 전형이나 대학도 함께 준비하시는 것이 좋겠습니다.
+추가 정보:
+- 농어촌 학생 전형에서는 주로 농어촌 거주 기간과 활동이 중요하게 평가됩니다.
+- 면접에서도 좋은 인상을 줄 수 있도록 준비해보세요.</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>0.3343283582089552</v>
+      </c>
+      <c r="E278" t="n">
+        <v>0.08408408408408409</v>
+      </c>
+      <c r="F278" t="n">
+        <v>0.1850746268656716</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예비 25번이라는 정보만으로는 정확한 확률을 판단하기 어렵습니다. 하지만 몇 가지 점을 고려해볼 수 있습니다:
+1. 예비 후보의 수가 많다면, 충원될 가능성이 낮아집니다.
+2. 각 모집단위별로 예비 25번이 나왔다는 것은 해당 분야에서 경쟁이 치열하다는 것을 의미합니다.
+3. 정시 일반학생 전형은 원서 접수 후 합격자 발표까지 시간이 있으므로, 충원 과정에서 변동성이 있을 수 있습니다.
+4. 일부 모집단위에서는 예비 25번 중 상당수가 최종적으로 합격하게 됩니다.
+따라서 확률을 정확히 말하기는 어렵지만, 예비 25번이라는 것은 좋은 성적을 가지고 있다는 것을 의미합니다. 충원 과정에서 최소한의 기회를 잡을 수 있으므로, 등록금 납부 기간까지 꾸준히 준비하고 대응하는 것이 중요할 것 같습니다.
+만약 더 자세한 정보가 필요하다면, 동의대학교 입학관리 홈페이지나 학교 관계자에게 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>0.2048192771084337</v>
+      </c>
+      <c r="E279" t="n">
+        <v>0.05454545454545454</v>
+      </c>
+      <c r="F279" t="n">
+        <v>0.1265060240963856</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 법경찰행정학부의 정시모집 경쟁률과 합격평균 점수는 매년 변동되므로, 정확한 정보를 얻기 위해서는 해당 연도의 입학정보를 확인해야 합니다. 하지만 일반적으로 다음과 같은 요소들을 고려할 수 있습니다:
+1. **전반적인 경쟁률**: 동의대학교 전체에서 법경찰행정학부가 어느 정도 위치하는지 파악합니다.
+2. **성적 평균**: 최근 몇 년간의 합격자들의 평균 성적을 확인합니다. 이는 대체로 수능 점수와 학생부 종합 평가를 포함한 총점으로 나타납니다.
+3. **학생부 종합 평가**: 특히, 동의대학교에서는 학생부 종합 평가가 중요한 역할을 합니다. 이 부분에서 높은 점수를 받는 것이 중요합니다.
+4. **전형별 특성**: 법경찰행정학부는 일반적으로 실기/실적 위주 전형과 학생부 종합 평가 위주의 전형이 혼합되어 있을 수 있습니다. 따라서, 해당 전형의 특성을 고려해야 합니다.
+5. **정시 모집인원**: 정시 모집인원과 지원자 수를 비교하여 대략적인 안정권 점수를 예측할 수 있습니다.
+일반적으로 동의대학교 법경찰행정학부의 합격평균 성적은 다음과 같습니다:
+- **수능 점수**: 평균 500점 이상이 필요하며, 일부 전형에서는 520점 이상을 추천합니다.
+- **학생부 종합 평가**: 7등급 이상을 받는 것이 안정적인 수준입니다. 특히 공동체역량과 학업역량 부분에서 높은 점수를 받는 것이 중요합니다.
+**예시:**
+- **안정권**: 수능 500점 + 학생부 종합 평가 7등급
+- **문 닫고 들어갈 수 있는 수준**: 수능 520점 + 학생부 종합 평가 8등급
+**주의사항:**
+- 이는 예시이며, 실제 점수는 매년 변동될 수 있습니다.
+- 정확한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하는 것이 가장 좋습니다.
+따라서, 정시로 안정적으로 들어가려면 최소 500점 이상의 수능 점수와 학생부 종합 평가 7등급 이상을 목표로 설정하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>0.3079096045197741</v>
+      </c>
+      <c r="E280" t="n">
+        <v>0.07932011331444759</v>
+      </c>
+      <c r="F280" t="n">
+        <v>0.1581920903954802</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>5.33이라는 점수는 대략적인 예측치로, 실제 합격 가능성은 여러 요인에 따라 달라질 수 있습니다.
+1. **모집단위와 모집인원**: 보육가정상담학과의 정확한 모집인원과 지원자 수를 확인해야 합니다. 만약 지원자가 많다면 경쟁률이 높아져 합격 가능성은 낮아질 수 있습니다.
+2. **경쟁률**: 해당 학과의 경쟁률을 확인해야 합니다. 경쟁률이 높으면 5.33이라는 점수로는 합격하기 어려울 수 있습니다.
+3. **성적 구조**: 동의대학교의 수능 성적 산출 방식을 고려해야 합니다. 예를 들어, 국어, 수학, 영어 등급점수와 탐구영역 점수가 어떻게 반영되는지 확인해야 합니다.
+4. **가산점**: 특정 모집단위에 가산점이 부여되는 경우도 있으므로 이 부분을 확인해 보세요.
+5. **전형별 특성**: 정시 모집의 특성을 고려해야 합니다. 예를 들어, 실기/실적 위주 전형에서는 실적 점수가 중요할 수 있습니다.
+6. **최종 합격자 발표**: 최종 합격자 발표를 통해 실제 합격선을 확인하는 것이 가장 정확한 방법입니다.
+따라서, 5.33이라는 점수로는 보육가정상담학과에 합격할 수 있을지는 확실하지 않습니다. 모집단위의 특성과 경쟁률 등을 고려하여 판단해야 합니다. 더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>0.2452316076294278</v>
+      </c>
+      <c r="E281" t="n">
+        <v>0.06027397260273972</v>
+      </c>
+      <c r="F281" t="n">
+        <v>0.1471389645776567</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교의 경우, 충원 합격자 발표와 등록이 복잡한 절차를 거칩니다. 특히 3차 충원합격자는 전화 연락 두절(3회 통화)로 인해 충원합격 통보가 어려운 경우에도 충원합격자가 될 수 있습니다.
+현재 상황에서 예비 12번으로 받았다면, 합격 가능성은 아직 높습니다. 하지만 다음과 같은 절차를 반드시 준수해야 합니다:
+1. **등록금 납부**: 지정된 기간 내에 등록금을 납부해야 합니다.
+2. **전화 연락 확인**: 충원합격자 발표 기간 동안 전화 연락 두절이 없어야 합니다.
+만약 3차 충원 합격자가 많은 경우, 예비 순위가 높은 지원자는 먼저 등록금 납부를 완료해야 하므로, 가능한 한 빨리 등록금을 납부하는 것이 중요합니다. 또한, 전화 연락 두절이 발생하지 않도록 주의해야 합니다.
+따라서 현재 상황에서 합격 가능성은 있습니다만, 정확한 확률을 예측하기는 어렵습니다. 최대한 빠르고 신중하게 등록금 납부를 완료하고, 전화 연락 두절이 발생하지 않도록 주의하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>0.4598930481283423</v>
+      </c>
+      <c r="E282" t="n">
+        <v>0.1720430107526882</v>
+      </c>
+      <c r="F282" t="n">
+        <v>0.2299465240641711</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>4.75라는 수능 점수는 상당히 높은 점수입니다. 하지만 유아교육학과의 모집인원과 경쟁률을 고려하면 여전히 어려울 가능성이 큽니다.
+유아교육학과의 경우:
+1. 모집인원: 3명
+2. 경쟁률이 높은 학과 중 하나입니다.
+3. 수능 성적 외에도 학생부 종합 평가가 중요합니다.
+4.75라는 점수는 대체로 좋은 성적이지만, 유아교육학과의 경우:
+- 학생부 종합 평가에서 높은 점수가 필요할 것입니다.
+- 관련 활동이나 경험을 잘 보여줄 수 있어야 합니다.
+- 교사 추천서나 자기소개서 등 서류평가에서도 좋은 결과를 내야 합니다.
+결론적으로 4.75라는 성적만으로는 유아교육학과에 합격하기 어렵다고 볼 수 있습니다. 하지만 수능 점수 외에도 강점을 잘 보여주면 가능성을 높일 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>0.1389830508474576</v>
+      </c>
+      <c r="E283" t="n">
+        <v>0.03061224489795918</v>
+      </c>
+      <c r="F283" t="n">
+        <v>0.07796610169491525</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>4.16의 등급을 가지고 보육가정상담학과(아동학과)로 정시 일반학생전형에 지원한다면, 합격 가능성은 있습니다만 확실하지 않습니다.
+보육가정상담학과는 인문사회과학대학 소속이며, 이 과목의 경쟁률과 수능 등급 기준을 고려해야 합니다. 4.16등급은 상당히 좋은 점수이지만, 정확한 합격 가능성 판단을 위해서는 다음과 같은 정보가 필요합니다:
+1. **최근 몇 년간의 모집인원 및 지원자 수**: 이 정보를 통해 경쟁률을 파악할 수 있습니다.
+2. **최저등급**: 최근 몇 년간의 최저등급을 확인하면, 4.16 등급이 어느 정도 위치하는지 알 수 있습니다.
+3. **전형방법 및 기준**: 정시 일반학생전형의 전형요소와 기준을 파악해야 합니다. 일부 학과는 수능 점수 외에도 서류심사 등을 실시할 수 있습니다.
+4. **최근 몇 년간의 합격자 등급 분포**: 이 정보를 통해 4.16등급이 어느 위치에 있는지 판단할 수 있습니다.
+만약 최근 몇 년간의 최저등급이 4.0 이상이고, 경쟁률이 높다면 4.16등급으로는 합격하기 어렵다고 볼 수 있습니다. 그러나 경쟁률이 낮거나, 모집인원이 많다면 합격 가능성은 있습니다.
+따라서, 정확한 판단을 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하여 최신 정보를 확인하는 것이 좋습니다. 또한, 다른 지원 가능한 학과도 고려해보시는 것도 좋은 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>0.2622950819672131</v>
+      </c>
+      <c r="E284" t="n">
+        <v>0.06593406593406592</v>
+      </c>
+      <c r="F284" t="n">
+        <v>0.1475409836065574</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 소프트웨어융합학과는 정시 모집에서 나군 학생부종합전형으로만 모집됩니다. 따라서 정시로 직접 지원하는 것은 불가능합니다.
+하지만, 나군 학생부종합전형을 통해 지원할 수 있습니다. 이 경우 평균 등급에 대한 정보는 표에서 제공된 데이터를 바탕으로 추정해볼 수 있습니다:
+- **평균 등급**: 표에서 소프트웨어융합학과의 영어 등급 평균은 4.12입니다.
+- **수능 4개 영역 등급 평균**: 이 값은 3.82로 보입니다.
+이러한 정보를 바탕으로 추정해보면, 소프트웨어융합학과에 지원하기 위해서는 다음과 같은 등급을 받는 것이 유리할 것으로 예상됩니다:
+- **영어 등급**: 4.0 이상
+- **수능 4개 영역 평균 등급**: 3.8 이상
+이러한 기준은 일반적인 추정이며, 실제 합격선은 모집인원과 지원자 수에 따라 변동될 수 있습니다. 따라서 최종 합격 가능성을 확인하려면 동의대학교 입학 홈페이지나 입학처와 직접 문의하는 것이 가장 정확할 것입니다.
+추가로, 전형요소 반영비율을 고려하면 서류 평가에서 70%를 차지하기 때문에, 학생부 교과성적과 진로선택 과목 등이 중요합니다. 따라서 학교생활기록부와 관련된 활동 및 성취도를 잘 준비하는 것이 필요할 것입니다.
+더 자세한 정보는 동의대학교 입학 홈페이지나 전화 문의를 통해 확인하시길 권장드립니다.</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>0.07746478873239436</v>
+      </c>
+      <c r="E285" t="n">
+        <v>0.04964539007092198</v>
+      </c>
+      <c r="F285" t="n">
+        <v>0.0704225352112676</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 나군 학생부종합(조기취업형계약학과전형)의 경우, 면접 점수와 서류 평가가 각각 중요하게 평가됩니다. 특히, 소프트웨어융합학과에서는 실무 경험이나 프로젝트 참여 등 전공적합성 관련 내용이 중요한 역할을 합니다.
+1. **면접 점수**: 면접에서는 지원동기와 학업계획, 학업역량, 전공적합성 등을 평가합니다. 이 중에서도 전공적합성에 대한 질문이 많으므로, 소프트웨어 관련 경험과 지식을 잘 준비하는 것이 중요합니다.
+2. **서류 평가**: 서류 평가는 학업역량, 공동체역량 등 다양한 영역에서 이루어집니다. 특히 전공적합성 영역에서는 지원자가 소프트웨어 분야에서의 경험과 열정을 잘 보여줄 수 있는 내용이 중요합니다.
+**서류 준비 사항:**
+- **학교생활기록부**: 학교생활기록부에 기재된 소프트웨어 관련 활동이나 프로젝트 참여 경력을 자세히 작성해야 합니다.
+- **창의적 체험활동**: 동아리 활동, 인턴십 경험, 프로젝트 참여 등 소프트웨어 분야와 직접적으로 연관된 활동을 강조하는 것이 좋습니다.
+- **추천서**: 가능하다면 IT 전문가나 관련 업계에서의 경험이 있는 사람으로부터 추천서를 받는 것도 도움이 될 수 있습니다.
+**주의사항:**
+- 서류와 면접 모두 학생 개인의 진실된 경험과 노력에 근거한 내용을 작성해야 합니다. 과장되거나 호의적으로 기재하면 부정적 평가를 받을 수 있으므로 주의해야 합니다.
+- 학교생활기록부 등 서류는 정확하게 작성하고, 필요할 경우 교사나 지도老师的，您提供的信息非常详细。根据您给出的数据，我来回答您的问题：
+1. **面试分数**：在软件融合专业中，面试主要评估支持动机、学业计划、学业能力以及与专业的契合度。特别是对于软件相关经验的提问会比较多。
+2. **文件审查**：文件评审将涵盖学业能力、团队合作能力等多个方面。特别是在专业匹配性部分，需要详细展示您在软件领域的经验和热情。
+**准备建议：**
+- **学校成绩单**：详细记录您的软件相关活动和项目参与经历。
+- **创意体验活动**：强调与软件相关的社团活动、实习经验或项目参与情况。
+- **推荐信**：如果可能的话，请IT专业人士或有相关行业经验的人士撰写推荐信。
+**注意事项：**
+- 文件和面试都应基于学生的实际经验和努力，避免夸大或过于正面的描述。否则可能会受到负面评价。
+- 学校成绩单等文件需要准确填写，并在必要时获得教师或指导者的支持。
+希望这些信息对您有所帮助！如果还有其他问题，请随时提问。</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>0.1503759398496241</v>
+      </c>
+      <c r="E286" t="n">
+        <v>0.06549118387909321</v>
+      </c>
+      <c r="F286" t="n">
+        <v>0.09523809523809523</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프리웨어공학부의 최초합격자 표를 보면, 평균 점수와 표준 편차가 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 317.87 / 9.08
+- 영어 등급 평균: 3.30 / 0.82
+제공된 성적이 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합이 4.08입니다. 이 점수가 표준 변환 점수 평균인 317.87보다 높은 것은 좋지만, 표준 편차를 고려해야 합니다.
+표준 편차가 9.08이라는 것을 보면, 평균점수에서 약 ±2.5개의 표준 편차 범위 내에 있는 학생들이 대부분 최초합격자로 선발되었습니다 (317.87 - 2.5 * 9.08 ~ 317.87 + 2.5 * 9.08).
+따라서, 제공된 성적이 평균점수보다 약간 높은 점수를 보여주고 있지만, 표준 편차를 고려하면 아직 확실하지 않습니다. 최초합격자로 선발되기 위해서는 더 높은 점수가 필요할 수 있습니다.
+결론적으로, 제공된 성적이 단독으로 보면 소프트웨어공학부의 최초합격자로 선발될 가능성은 있지만, 확실한 것은 아니며, 다른 학생들과의 경쟁에서 우위를 가져야 합니다.</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>0.3411764705882352</v>
+      </c>
+      <c r="E287" t="n">
+        <v>0.1183431952662722</v>
+      </c>
+      <c r="F287" t="n">
+        <v>0.1882352941176471</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有直接提到“软件融合学部”或“软件融合学科”的具体招生要求和标准。不过，根据您提供的其他表格内容，可以进行一些合理的推测。
+1. **学生学业成绩**：通常情况下，大学在录取时会参考学生的高中学业成绩（如国语、数学、英语等科目的等级）。如果您的平均等级是5级，这可能意味着您的成绩处于中等偏下的水平。不同专业的录取标准可能会有所不同，但一般来说，5级的成绩应该能够满足一些非顶尖专业的要求。
+2. **其他因素**：除了学业成绩外，大学在录取时还会考虑学生的综合素质、特长等因素。如果您的综合表现优秀（如参加过相关竞赛、有丰富的实习经验等），可能仍然有机会被录取。
+3. **具体专业的招生要求**：为了更准确地判断您是否有资格申请软件融合学部或类似专业，建议直接查看该专业的具体招生简章或者咨询学校的招生办公室。他们可以提供最准确的信息和指导。
+如果您想进一步确认是否能够申请，请访问学校官网（https://ipsi.deu.ac.kr/main.do）查找相关专业的详细信息，或者直接联系学校的招生办公室获取更详细的解答。</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>0.05479452054794521</v>
+      </c>
+      <c r="E288" t="n">
+        <v>0</v>
+      </c>
+      <c r="F288" t="n">
+        <v>0.05479452054794521</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>4.28이라는 점수는 상당히 높은 점수입니다. 하지만 동의대학교 신소재공학과에 입학하기 위해서는 여러 요인을 고려해야 합니다.
+1. **모집 인원**: 신소재공학과는 모집 인원이 56명이며, 지원 인원이 81명으로 경쟁률이 높습니다 (경쟁률은 약 1.45:1).
+2. **점수 분포**:
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합의 평균은 271.64이고, 표준 편차는 19.52입니다.
+   - 영어 등급의 평균은 5.06이고, 표준 편차는 1.22입니다.
+3. **점수 비교**:
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합의 평균보다 약간 높습니다 (271.64 vs 275.00).
+   - 영어 등급의 평균은 약간 낮습니다 (5.06 vs 5.38).
+따라서, 점수만으로는 확실한 보장은 없습니다. 하지만 좋은 성적을 가지고 있으므로 충분히 가능성이 있습니다. 실제 입학 가능성은 경쟁률과 지원자의 전체적인 성적 분포를 고려해야 합니다.
+추천 사항:
+- 동의대학교의 공식 홈페이지나 입학처에 문의하여 최신 정보와 추가 조언을 받으세요.
+- 학교에서 제공하는 모의고사나 대비 과정에 참여하여 성적이 더 높아질 수 있도록 노력하세요.</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="E289" t="n">
+        <v>0.0664819944598338</v>
+      </c>
+      <c r="F289" t="n">
+        <v>0.1487603305785124</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>2024년 나군 수능(일반학생전형)에서는 자기소개서 작성은 필수 항목이 아닙니다. 일반적으로 수능(일반학생전형)은 수학능력시험 성적을 주요 평가 기준으로 합니다. 따라서 자기소개서는 필요하지 않습니다.
+만약 특정 학과나 모집단위에서 자기소개서를 요구하는 경우에는 해당 정보를 확인해야 하며, 그 경우에 따라 작성해야 합니다. 하지만 일반적으로는 수능 점수와 학교생활기록부가 주요 평가 기준이 됩니다.
+자세한 내용은 동의대학교 입학처 웹사이트나 전형요강을 참조하시거나, 직접 입학처로 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="E290" t="n">
+        <v>0.01626016260162601</v>
+      </c>
+      <c r="F290" t="n">
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>4.5라는 점수는 상당히 높은 점수입니다. 하지만 추가모집에 합격할 확률을 판단하기 위해서는 몇 가지 요소를 고려해야 합니다:
+1. **모집인원과 지원자 수**: 각 모집단위의 정시 모집 인원과 실제 지원자의 수가 중요합니다. 만약 지원자가 많다면, 추가모집에서도 경쟁이 치열할 것입니다.
+2. **전형요소**: 수능 점수 외에도 학생부, 면접 등 다른 전형 요소도 고려됩니다. 특히 실기나 특별한 활동 경험이 있다면 이는 큰 장점이 될 수 있습니다.
+3. 동의대학교의 추가모집 방침: 추가모집 시 수능 점수 기준 외에 어떤 요소를 더 고려하는지 확인해야 합니다. 일부 대학은 추가모집에서 수능 점수보다 학생부나 면접 성적을 더 중시할 수도 있습니다.
+4. **최저합격선**: 각 모집단위의 최저합격선이 어느 정도인지 파악해야 합니다. 4.5라는 점수가 해당 모집단위의 최저합격선보다 높다면, 합격 가능성은 높아질 것입니다.
+추가모집에 대한 자세한 정보는 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. 또한, 대학별 추가모집 방침과 기준을 확인하여 자신이 지원할 수 있는 모집단위를 정하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>0.4128440366972477</v>
+      </c>
+      <c r="E291" t="n">
+        <v>0.1290322580645161</v>
+      </c>
+      <c r="F291" t="n">
+        <v>0.2201834862385321</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 신소재공학과에 대한 정시 모집요강을 기반으로, 일반학생전형의 경우 대략적인 합격 가능 등급을 추정해볼 수 있습니다. 하지만 정확한 합격 가능 등급은 매년 변동될 수 있으며, 최종 합격 가능 등급은 해당 년도의 입학사정관이 결정합니다.
+신소재공학과는 공과대학에 속하며, 일반적으로 공과대학의 경우 수능 4개 영역(국어, 수학, 외국어, 과탐) 중 국어와 수학의 점수가 높은 편입니다. 또한, 신소재공학과는 기술적 측면이 강한 전공으로서 과학 탐구 영역도 중요하게 평가받을 것입니다.
+2023년 동의대학교 공과대학의 합격 가능 등급을 참고로 하자면:
+- 국어: 95점 이상
+- 수학: 87점 이상
+- 외국어: 60점 이상 (영어)
+- 과탐(화학, 물리 중 선택): 4등급 이상
+이러한 기준을 바탕으로 추정하면, 신소재공학과의 경우 대략적으로 국어와 수학 등급이 높은 학생들이 선호됩니다. 예를 들어:
+- 국어: 95점
+- 수학: 87점
+- 외국어: 60점 (영어)
+- 과탐(화학, 물리 중 선택): 4등급
+이러한 등급을 기준으로 하면 대략적으로 2등급 이상의 합격 가능성을 가질 수 있습니다. 하지만 이는 예측이며, 실제 합격 가능성은 입시 경쟁률과 입학사정관의 평가 기준에 따라 달라질 수 있으므로, 최종적인 정보는 동의대학교 입학처 웹사이트나 전화로 확인하는 것이 좋습니다.
+추가적으로, 신소재공학과는 실기와 실험 능력이 중요하기 때문에, 관련 과목에서 높은 성적을 받고 연구실 경험이나 프로젝트 참여 경험이 있는 학생들이 유리할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>0.1734693877551021</v>
+      </c>
+      <c r="E292" t="n">
+        <v>0.05641025641025642</v>
+      </c>
+      <c r="F292" t="n">
+        <v>0.1173469387755102</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 표준점수를 환산할 때, 작년 데이터와 비교하여 최종 합격 가능성을 판단하는 것은 가능합니다. 하지만 여러 요인을 고려해야 합니다.
+1. **모집 인원과 지원자 수**: 작년에 비해 모집 인원이 늘었거나 줄었는지 확인해야 합니다. 더 많은 지원자가 경쟁할 경우, 평균 점수가 상승할 가능성이 있습니다.
+2. **경쟁률**: 작년의 경쟁률을 확인하여 현재와 비교합니다. 경쟁률이 높아졌다면 합격 기준점도 상승할 수 있습니다.
+3. **모집 단과대학 및 계열**: 특정 모집단위에서 표준점수가 변동되었는지 확인해야 합니다. 예를 들어, 작년에는 신소재공학과가 더 많은 지원자를 받았다면 평균 점수는 상승할 수 있습니다.
+4. **기타 요인**: 입학사정관제, 면접 등 다른 전형요소의 중요도 변화나 추가 조건이 변경되었는지 확인해야 합니다.
+따라서, 작년 표준점수가 447점보다 약간 높았다고 해도, 현재 상황에서 최종 합격 가능성은 있습니다. 하지만 확실한 것은 아니며, 정확한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하는 것이 가장 좋습니다.
+추가적으로, 동의대학교의 공식 홈페이지나 입학처에 연락하여 최신 정보와 조언을 구하는 것이 가장 확실합니다.</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>0.2484076433121019</v>
+      </c>
+      <c r="E293" t="n">
+        <v>0.07051282051282051</v>
+      </c>
+      <c r="F293" t="n">
+        <v>0.1464968152866242</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>4.3등급의 성적이 동의대학교에서 신소재공학과의 정시 모집에 충분한 점수일지는 불확실합니다. 동의대학교의 정시 모집에서는 수능 성적 반영 비율이 높기 때문에, 일반적으로 4.1~4.2등급은 경쟁력이 약간 부족할 가능성이 있습니다.
+다음 사항들을 고려해보세요:
+1. **전반적인 경쟁률**: 동의대학교 신소재공학과의 정시 모집에서 수능 성적이 높은 학생들이 많이 지원하기 때문에, 4.3등급만으로는 충분한 점수가 아닐 가능성이 큽니다.
+2. **개인적 특성**: 진로와 관심사, 활동 경력 등 개인적인 요소도 중요합니다. 이들 요소가 강조되면 학생부 종합 평가에서 유리할 수 있습니다.
+3. **추천서 및 자기소개서**: 추천서나 자기소개서를 잘 준비하면 학생부 종합 평가에서 높은 점수를 받을 수 있습니다.
+4. **기타 지원 경로**: 다른 전형(예: 학생부종합, 조기취업형 계약학과 등)을 통해 지원해볼 수도 있습니다.
+5. **추천 및 자료 확인**: 동의대학교 입학처에 문의하여 현재 모집 상태와 경쟁률 등을 확인해보세요. 이 정보는 지원 전략을 세우는데 도움이 될 수 있습니다.
+결론적으로, 4.3등급만으로는 신소재공학과 정시 모집에 충분한 점수가 아닐 가능성이 높습니다. 그러나 개인적 특성과 기타 요인들을 잘 활용한다면 기회를 잡을 수도 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>0.2702702702702703</v>
+      </c>
+      <c r="E294" t="n">
+        <v>0.06680584551148225</v>
+      </c>
+      <c r="F294" t="n">
+        <v>0.1205821205821206</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과의 수능(일반학생전형) 모집에 대한 정확한 합격 기준 점수는 공시되지 않았습니다. 하지만, 일반적으로 수능 전형에서 합격을 위한 최소 점수는 다음과 같습니다:
+- **국어**: 100점 이상
+- **수학 I (미적분)**: 100점 이상
+- **영어**: 4등급 이상
+특히 인공지능 관련 분야에서는 과학 영역의 성적이 중요할 수 있습니다. 예를 들어, **물리**나 **화학** 등과 같은 과목에서 높은 점수를 받는 것이 유리할 것입니다.
+또한, 동의대학교의 경우 합격 기준을 충족하는 학생들 중에서 추가적인 요인들을 고려하여 최종 결정을 내립니다. 예를 들어:
+- **학생부 성적**: 과목별 성취도와 석차 등
+- **추천서**: 교사나 학교의 추천서
+- **면접**: 일부 경우에만 실시될 수 있는 면접
+따라서, 위의 기준 점수를 넘어서는 성적이 필요하며, 특히 인공지능 관련 과목에서 높은 점수를 받는 것이 중요합니다. 정확한 합격 기준을 확인하려면 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다.
+추가적으로, 수험생들의 성적 분포와 모집인원 등을 고려하여 최종 합격 기준 점수가 결정되므로, 개인의 성적이 어느 정도 이상이어야 하는지 정확히 알려드리기는 어렵습니다.</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>0.332541567695962</v>
+      </c>
+      <c r="E295" t="n">
+        <v>0.1288782816229117</v>
+      </c>
+      <c r="F295" t="n">
+        <v>0.2232779097387174</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>5.27이라는 점수를 가지고 정확히 어떤 전형에 지원할 수 있는지 알기 위해서는 몇 가지 정보가 필요합니다:
+1. 해당하는 모집군 (예: 나군, 가군 등)을 알려주십시오.
+2. 지원하고자 하는 모집단위 (학과 또는 전공)를 알려주십시오.
+5.27이라는 점수는 대략 2024년도의 수능 성적입니다. 하지만 정확한 합격 가능성은 다음과 같은 요소들에 따라 달라질 수 있습니다:
+- 모집군 및 모집단위별로 수능 반영 비율이 다릅니다.
+- 각 전형에서 수능 점수 외에도 서류평가, 면접 등 다른 평가 요인이 포함될 수 있습니다.
+따라서, 정확한 답변을 드리기 위해서는 위의 정보를 제공해 주시면 감사하겠습니다. 필요하다면, 해당 모집군과 모집단위의 전형요소 반영비율 및 동점자 처리 기준 등을 확인하실 수도 있습니다.</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>0.106830122591944</v>
+      </c>
+      <c r="E296" t="n">
+        <v>0.01754385964912281</v>
+      </c>
+      <c r="F296" t="n">
+        <v>0.05604203152364273</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 상당히 높은 점수입니다. 동의대학교 소프트웨어공학부의 합격 기준을 살펴보겠습니다.
+1. **소프트웨어공학부**:
+   - 모집인원: 45명
+   - 전형방법: 서류(학생부)60% + 면접40%
+   - 학생부 교과성적 반영 방식: 
+     - 전반적으로 국어, 수학, 영어, 한국사, 사회, 과학교과 중 석차등급 상위 12과목을 반영합니다.
+     - 진로선택과목은 최대 2과목까지 반영 가능합니다.
+2. **성적 평균**:
+   - 성적 평균: 4.87
+   - 최고 점수: 5.33
+3. **성적 분포**:
+   - 4.0 이상의 학생들이 상당수 포함되어 있습니다.
+4. **면접 평균**:
+   - 면접 평균: 1.60
+   - 최고 점수: 5.33
+4.2라는 성적은 상위권에 속합니다. 이 점수로는 합격 가능성은 있습니다만, 확실한 것은 아닙니다. 특히 면접에서 좋은 평가를 받을 경우 더 높은 확률이 있을 것입니다.
+**추천 사항**:
+1. **면접 준비**: 면접 질문 공통문항과 관련된 답변을 잘 준비하세요.
+2. **서류 제출**: 학교생활기록부와 기타 서류를 철저히 검토하고, 필요한 부분은 추가 설명이나 증빙 자료를 첨부해 주세요.
+3. **면접 실력 강화**: 면접 기술을 향상시키는 연습을 해보세요.
+결론적으로 4.2라는 성적으로 소프트웨어공학부에 합격할 수 있는 가능성은 있습니다만, 확실한 것은 아니므로 철저히 준비하고 최선을 다해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="E297" t="n">
+        <v>0.0544959128065395</v>
+      </c>
+      <c r="F297" t="n">
+        <v>0.1355013550135502</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>为了判断您提供的成绩是否符合东义大学化工环境工程学部（化学与环境工程学部）的录取要求，我们需要知道该学部的具体录取分数线。不过，我们可以根据一般情况来分析。
+首先，我们来看一下您的成绩：
+- 国语 (Korean)：104
+- 数学 (Mathematics)：108
+- 英语 (English)：4等（等级）
+- 物理 (Physics I)：47
+- 化学 (Chemistry I)：59
+根据您提供的成绩，我们可以计算出您的总分：
+\[ 104 + 108 + 123 + 47 + 59 = 431 \]
+接下来，我们需要知道东义大学化工环境工程学部的录取分数线。通常情况下，这个分数线会根据每年的具体情况有所不同。
+假设该学部的一般录取分数线为400分（这是一个示例值，实际数值可能不同），那么您的成绩431分是有可能达到录取要求的。
+但是为了确保准确无误，请您参考东义大学官方网站或直接联系学校招生办公室获取最新的具体分数要求。这样可以得到最准确的答案。
+如果您需要进一步的帮助或者有其他问题，请随时告诉我！</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>0.02580645161290323</v>
+      </c>
+      <c r="E298" t="n">
+        <v>0</v>
+      </c>
+      <c r="F298" t="n">
+        <v>0.02580645161290323</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 화학공학과(화학공학과 - 교직)는 공과대학에 속하며, 해당 학과의 모집요강을 확인해보겠습니다.
+1. **모집요강 확인**:
+   - 화학공학과 - 교직은 일반학생전형으로 수능 성적을 반영합니다.
+   - 수능 반영 비율은 100%입니다 (다군 수능(일반학생전형) 전형요소 반영비율 참조).
+2. **성적 확인**:
+   - 동의대식 성적 4.25는 대학별 전형에서 고려되는 성적입니다.
+   - 일반적으로, 수능 성적이 높을수록 합격 가능성은 높아집니다.
+3. **합격 가능 여부**:
+   - 화학공학과의 모집인원과 지원자들의 수능 성적 분포를 고려해야 합니다.
+   - 현재 정보만으로는 정확한 합격 확률을 예측하기 어렵습니다.
+4. **추가 정보 필요성**:
+   - 각 모집단위별 최저합격 점수와 지원자의 수능 성적 분포를 확인하여 더 정확한 판단이 가능합니다.
+   - 동의대학교 입학 홈페이지나 공식 안내 자료를 통해 추가 정보를 얻으시는 것이 좋습니다.
+따라서, 현재로서는 화학공학과로 일반학생전형으로 지원하는 것은 가능하지만, 최종 합격 여부는 모집인원과 지원자의 성적 분포 등 여러 요소에 따라 결정됩니다. 추가 정보를 확인하시고, 필요하다면 입학처와 상담을 받으시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>0.2369146005509642</v>
+      </c>
+      <c r="E299" t="n">
+        <v>0.05540166204986149</v>
+      </c>
+      <c r="F299" t="n">
+        <v>0.1322314049586777</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 일반적으로 수능 성적에서 좋은 점수로 평가되지만, 동의대학교의 영화학과 입학에 필요한 성적은 정확히 알려진 정보가 없습니다. 따라서 다음과 같은 요소들을 고려해야 합니다:
+1. **전형방법**: 동의대학교의 영화학과는 일반적으로 수능 성적이 주요한 평가 기준이지만, 실기나 면접 등도 포함될 수 있습니다.
+2. **모집인원 및 지원자 수**: 이 정보를 통해 경쟁률을 파악할 수 있습니다. 경쟁률이 높다면 4.2점은 좋은 성적일 수 있지만, 낮다면 합격 가능성은 더 높아질 것입니다.
+3. **전형요소 반영비율**: 영화학과는 실기나 면접 등 실적 요소가 포함될 수 있으므로, 이 부분을 잘 준비해야 합니다.
+4. **대학별 평균 성적**: 동의대학교 전체 또는 영화학과의 평균 수능 점수를 확인하여 자신의 성적이 어느 정도인지 판단할 수 있습니다.
+5. **개인 경쟁력**: 학교생활기록부, 진로선택과목 등 개인적인 요소도 중요한 역할을 합니다.
+이러한 정보들을 종합적으로 고려하면 더 정확한 답변을 드릴 수 있을 것입니다. 만약 동의대학교의 공식 홈페이지나 입학처에 해당 정보가 제공된다면 참고하시기 바랍니다. 또한, 입학처와 상담하여 자세한 조언을 받는 것도 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>0.2448979591836734</v>
+      </c>
+      <c r="E300" t="n">
+        <v>0.05128205128205129</v>
+      </c>
+      <c r="F300" t="n">
+        <v>0.1122448979591837</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>以下是翻译结果：
+面试流程如下：
+1. 入候考室 (等待室)：考生进入等候室。
+2. 身份确认：进行身份验证。
+3. 移动到考场前：前往考场前的区域。
+4. 进入考场：进入考场。
+5. 发表支持动机及学业计划：阐述申请动机和入学后的学习计划。
+6. 讨论学力、专业适应性相关共同问题并回答提问：讨论与学术能力、专业适应性相关的问题，并回答提问。
+7. 其他问答（提交文件的真实性验证等）：其他问答环节，包括对提交文件真实性的验证等。</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>0.4259259259259259</v>
+      </c>
+      <c r="E301" t="n">
+        <v>0.2641509433962264</v>
+      </c>
+      <c r="F301" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>GPT-4o-mini Average</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>0.3988235997077261</v>
+      </c>
+      <c r="E302" t="n">
+        <v>0.2711294556187882</v>
+      </c>
+      <c r="F302" t="n">
+        <v>0.3497239685777745</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Google Gemma-2-9b-it Average</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>0.3543280644176568</v>
+      </c>
+      <c r="E303" t="n">
+        <v>0.2009141509636552</v>
+      </c>
+      <c r="F303" t="n">
+        <v>0.2990666139282802</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct Average</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>0.3473498496227737</v>
+      </c>
+      <c r="E304" t="n">
+        <v>0.2075538444670895</v>
+      </c>
+      <c r="F304" t="n">
+        <v>0.2779616196358401</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
           <t>Total Average</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D204" t="n">
-        <v>0.3765758320626915</v>
-      </c>
-      <c r="E204" t="n">
-        <v>0.2360218032912217</v>
-      </c>
-      <c r="F204" t="n">
-        <v>0.3243952912530272</v>
+      <c r="D305" t="n">
+        <v>0.3668338379160522</v>
+      </c>
+      <c r="E305" t="n">
+        <v>0.2265324836831777</v>
+      </c>
+      <c r="F305" t="n">
+        <v>0.3089174007139649</v>
       </c>
     </row>
   </sheetData>
